--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C2" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D2" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E2" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" t="n">
-        <v>1958.5329</v>
+        <v>416</v>
       </c>
       <c r="G2" t="n">
-        <v>232.1333333333333</v>
+        <v>944.9067729040999</v>
       </c>
       <c r="H2" t="n">
-        <v>233.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C3" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D3" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E3" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F3" t="n">
-        <v>2775.1499</v>
+        <v>341</v>
       </c>
       <c r="G3" t="n">
-        <v>232.3333333333333</v>
+        <v>944.9067729040999</v>
       </c>
       <c r="H3" t="n">
-        <v>233.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C4" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D4" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E4" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>232.6</v>
+        <v>945.9067729040999</v>
       </c>
       <c r="H4" t="n">
-        <v>233.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C5" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D5" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E5" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F5" t="n">
-        <v>8130.7432</v>
+        <v>613.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>233</v>
+        <v>331.9068729040998</v>
       </c>
       <c r="H5" t="n">
-        <v>233.7</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C6" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D6" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E6" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F6" t="n">
-        <v>345.7541</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>233.4</v>
+        <v>332.9068729040998</v>
       </c>
       <c r="H6" t="n">
-        <v>233.8</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C7" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D7" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E7" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F7" t="n">
-        <v>5006</v>
+        <v>266.3241</v>
       </c>
       <c r="G7" t="n">
-        <v>233.6666666666667</v>
+        <v>66.58277290409984</v>
       </c>
       <c r="H7" t="n">
-        <v>233.85</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+        <v>235</v>
+      </c>
+      <c r="K7" t="n">
+        <v>235</v>
+      </c>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +647,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C8" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D8" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E8" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F8" t="n">
-        <v>1669</v>
+        <v>5448.6601</v>
       </c>
       <c r="G8" t="n">
-        <v>233.9333333333333</v>
+        <v>5515.2428729041</v>
       </c>
       <c r="H8" t="n">
-        <v>233.9</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>235</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +688,41 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D9" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E9" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F9" t="n">
-        <v>15945.3325</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>234.2666666666667</v>
+        <v>5516.2428729041</v>
       </c>
       <c r="H9" t="n">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+        <v>235</v>
+      </c>
+      <c r="K9" t="n">
+        <v>235</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +731,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C10" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D10" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E10" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>1991.7375</v>
       </c>
       <c r="G10" t="n">
-        <v>234.6666666666667</v>
+        <v>3524.5053729041</v>
       </c>
       <c r="H10" t="n">
-        <v>234.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>235</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +772,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C11" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D11" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E11" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F11" t="n">
-        <v>5700</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>235.1333333333333</v>
+        <v>3525.5053729041</v>
       </c>
       <c r="H11" t="n">
-        <v>234.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>235</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +813,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C12" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D12" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E12" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F12" t="n">
-        <v>450</v>
+        <v>343.458</v>
       </c>
       <c r="G12" t="n">
-        <v>235.7333333333333</v>
+        <v>3182.0473729041</v>
       </c>
       <c r="H12" t="n">
-        <v>234.4</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>235</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +854,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C13" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D13" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E13" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F13" t="n">
-        <v>504.4375</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>236.3333333333333</v>
+        <v>3183.0473729041</v>
       </c>
       <c r="H13" t="n">
-        <v>234.45</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>235</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +895,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C14" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D14" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E14" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F14" t="n">
-        <v>1891.6437</v>
+        <v>97.7152</v>
       </c>
       <c r="G14" t="n">
-        <v>236.8666666666667</v>
+        <v>3085.3321729041</v>
       </c>
       <c r="H14" t="n">
-        <v>234.5</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>235</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +936,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C15" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D15" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E15" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F15" t="n">
-        <v>1229.5687</v>
+        <v>5896.2741</v>
       </c>
       <c r="G15" t="n">
-        <v>237.4666666666667</v>
+        <v>3085.3321729041</v>
       </c>
       <c r="H15" t="n">
-        <v>234.55</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>235</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +977,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C16" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D16" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E16" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F16" t="n">
-        <v>358.6248</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>237.9333333333333</v>
+        <v>3086.3321729041</v>
       </c>
       <c r="H16" t="n">
-        <v>234.6</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>235</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +1018,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C17" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D17" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E17" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>854.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>238.3333333333333</v>
+        <v>3086.3321729041</v>
       </c>
       <c r="H17" t="n">
-        <v>234.65</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+        <v>233</v>
+      </c>
+      <c r="K17" t="n">
+        <v>235</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +1061,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C18" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D18" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E18" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F18" t="n">
-        <v>20489.2374</v>
+        <v>1702</v>
       </c>
       <c r="G18" t="n">
-        <v>238.2</v>
+        <v>3086.3321729041</v>
       </c>
       <c r="H18" t="n">
-        <v>234.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>235</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1102,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C19" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D19" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E19" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F19" t="n">
-        <v>193.9922</v>
+        <v>374.2359</v>
       </c>
       <c r="G19" t="n">
-        <v>238.2</v>
+        <v>2712.0962729041</v>
       </c>
       <c r="H19" t="n">
-        <v>234.6666666666667</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+        <v>233</v>
+      </c>
+      <c r="K19" t="n">
+        <v>235</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1145,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C20" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D20" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E20" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F20" t="n">
-        <v>550.6722</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>238.3333333333333</v>
+        <v>2713.0962729041</v>
       </c>
       <c r="H20" t="n">
-        <v>234.7</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>235</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1186,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C21" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D21" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E21" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F21" t="n">
-        <v>1665</v>
+        <v>1335</v>
       </c>
       <c r="G21" t="n">
-        <v>238.4</v>
+        <v>4048.0962729041</v>
       </c>
       <c r="H21" t="n">
-        <v>234.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>235</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1227,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C22" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D22" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E22" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F22" t="n">
-        <v>278</v>
+        <v>2910.0515</v>
       </c>
       <c r="G22" t="n">
-        <v>238.4666666666667</v>
+        <v>4048.0962729041</v>
       </c>
       <c r="H22" t="n">
-        <v>234.7666666666667</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+        <v>233</v>
+      </c>
+      <c r="K22" t="n">
+        <v>235</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1270,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C23" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D23" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E23" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F23" t="n">
-        <v>139</v>
+        <v>169.8305</v>
       </c>
       <c r="G23" t="n">
-        <v>238.5333333333333</v>
+        <v>4048.0962729041</v>
       </c>
       <c r="H23" t="n">
-        <v>234.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>235</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1311,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C24" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D24" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E24" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F24" t="n">
-        <v>1250</v>
+        <v>3141</v>
       </c>
       <c r="G24" t="n">
-        <v>238.6</v>
+        <v>907.0962729040998</v>
       </c>
       <c r="H24" t="n">
-        <v>234.8166666666667</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+        <v>233</v>
+      </c>
+      <c r="K24" t="n">
+        <v>235</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1354,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C25" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D25" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E25" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F25" t="n">
-        <v>1000</v>
+        <v>2164</v>
       </c>
       <c r="G25" t="n">
-        <v>238.4666666666667</v>
+        <v>907.0962729040998</v>
       </c>
       <c r="H25" t="n">
-        <v>234.8666666666667</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+        <v>232</v>
+      </c>
+      <c r="K25" t="n">
+        <v>235</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1397,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C26" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D26" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E26" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F26" t="n">
-        <v>11036.8598</v>
+        <v>921</v>
       </c>
       <c r="G26" t="n">
-        <v>238.4</v>
+        <v>-13.90372709590019</v>
       </c>
       <c r="H26" t="n">
-        <v>234.9166666666667</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+        <v>232</v>
+      </c>
+      <c r="K26" t="n">
+        <v>235</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1440,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C27" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D27" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E27" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F27" t="n">
-        <v>250</v>
+        <v>3713</v>
       </c>
       <c r="G27" t="n">
-        <v>238.2666666666667</v>
+        <v>-13.90372709590019</v>
       </c>
       <c r="H27" t="n">
-        <v>234.9666666666667</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+        <v>231</v>
+      </c>
+      <c r="K27" t="n">
+        <v>235</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1483,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C28" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D28" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E28" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F28" t="n">
-        <v>500</v>
+        <v>938.3859</v>
       </c>
       <c r="G28" t="n">
-        <v>238.1333333333333</v>
+        <v>924.4821729040998</v>
       </c>
       <c r="H28" t="n">
-        <v>235.05</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+        <v>231</v>
+      </c>
+      <c r="K28" t="n">
+        <v>235</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,36 +1526,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C29" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D29" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E29" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F29" t="n">
-        <v>6.2058</v>
+        <v>12.9197</v>
       </c>
       <c r="G29" t="n">
-        <v>238</v>
+        <v>911.5624729040998</v>
       </c>
       <c r="H29" t="n">
-        <v>235.1333333333333</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+        <v>232</v>
+      </c>
+      <c r="K29" t="n">
+        <v>235</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1569,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C30" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D30" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E30" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>1338.0432</v>
       </c>
       <c r="G30" t="n">
-        <v>237.8666666666667</v>
+        <v>2249.6056729041</v>
       </c>
       <c r="H30" t="n">
-        <v>235.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>235</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1610,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C31" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D31" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E31" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F31" t="n">
-        <v>2195.8949</v>
+        <v>1958.5329</v>
       </c>
       <c r="G31" t="n">
-        <v>237.7333333333333</v>
+        <v>4208.138572904099</v>
       </c>
       <c r="H31" t="n">
-        <v>235.2833333333333</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+        <v>233</v>
+      </c>
+      <c r="K31" t="n">
+        <v>235</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1653,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C32" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D32" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E32" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F32" t="n">
-        <v>3000</v>
+        <v>2775.1499</v>
       </c>
       <c r="G32" t="n">
-        <v>237.6</v>
+        <v>6983.2884729041</v>
       </c>
       <c r="H32" t="n">
-        <v>235.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>235</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1694,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C33" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D33" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F33" t="n">
-        <v>5750</v>
+        <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>237.8666666666667</v>
+        <v>7083.2884729041</v>
       </c>
       <c r="H33" t="n">
-        <v>235.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>235</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1735,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C34" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D34" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E34" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F34" t="n">
-        <v>1600.4302</v>
+        <v>8130.7432</v>
       </c>
       <c r="G34" t="n">
-        <v>237.8666666666667</v>
+        <v>-1047.4547270959</v>
       </c>
       <c r="H34" t="n">
-        <v>235.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>235</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1776,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C35" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D35" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E35" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>345.7541</v>
       </c>
       <c r="G35" t="n">
-        <v>237.8666666666667</v>
+        <v>-701.7006270959001</v>
       </c>
       <c r="H35" t="n">
-        <v>235.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>235</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1742,24 +1829,27 @@
         <v>237</v>
       </c>
       <c r="F36" t="n">
-        <v>132</v>
+        <v>5006</v>
       </c>
       <c r="G36" t="n">
-        <v>237.8</v>
+        <v>-701.7006270959001</v>
       </c>
       <c r="H36" t="n">
-        <v>235.65</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>235</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1858,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C37" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E37" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" t="n">
-        <v>1360</v>
+        <v>1669</v>
       </c>
       <c r="G37" t="n">
-        <v>237.8</v>
+        <v>-701.7006270959001</v>
       </c>
       <c r="H37" t="n">
-        <v>235.7</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>235</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1818,24 +1911,27 @@
         <v>238</v>
       </c>
       <c r="F38" t="n">
-        <v>19044.7129</v>
+        <v>15945.3325</v>
       </c>
       <c r="G38" t="n">
-        <v>237.8</v>
+        <v>15243.6318729041</v>
       </c>
       <c r="H38" t="n">
-        <v>235.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>235</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1940,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E39" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>237.8</v>
+        <v>15243.6318729041</v>
       </c>
       <c r="H39" t="n">
-        <v>235.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>235</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,7 +1981,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C40" t="n">
         <v>239</v>
@@ -1891,27 +1990,30 @@
         <v>239</v>
       </c>
       <c r="E40" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F40" t="n">
-        <v>120.0596</v>
+        <v>5700</v>
       </c>
       <c r="G40" t="n">
-        <v>238</v>
+        <v>20943.6318729041</v>
       </c>
       <c r="H40" t="n">
-        <v>235.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>235</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,7 +2022,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C41" t="n">
         <v>240</v>
@@ -1929,27 +2031,30 @@
         <v>240</v>
       </c>
       <c r="E41" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F41" t="n">
-        <v>2001</v>
+        <v>450</v>
       </c>
       <c r="G41" t="n">
-        <v>238.1333333333333</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H41" t="n">
-        <v>236.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>235</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +2063,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C42" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D42" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E42" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F42" t="n">
-        <v>5829.8678</v>
+        <v>504.4375</v>
       </c>
       <c r="G42" t="n">
-        <v>238.2</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H42" t="n">
-        <v>236.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>235</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,7 +2104,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C43" t="n">
         <v>240</v>
@@ -2005,27 +2113,30 @@
         <v>240</v>
       </c>
       <c r="E43" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F43" t="n">
-        <v>5029</v>
+        <v>1891.6437</v>
       </c>
       <c r="G43" t="n">
-        <v>238.3333333333333</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H43" t="n">
-        <v>236.2666666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>235</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +2145,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C44" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D44" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E44" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F44" t="n">
-        <v>227</v>
+        <v>1229.5687</v>
       </c>
       <c r="G44" t="n">
-        <v>238.4</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H44" t="n">
-        <v>236.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>235</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +2186,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C45" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D45" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E45" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F45" t="n">
-        <v>294.0433</v>
+        <v>358.6248</v>
       </c>
       <c r="G45" t="n">
-        <v>238.4666666666667</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H45" t="n">
-        <v>236.45</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>235</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +2227,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C46" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D46" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E46" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F46" t="n">
-        <v>2224.9999</v>
+        <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>238.4666666666667</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H46" t="n">
-        <v>236.55</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>235</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2268,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C47" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D47" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E47" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F47" t="n">
-        <v>1</v>
+        <v>20489.2374</v>
       </c>
       <c r="G47" t="n">
-        <v>238.5333333333333</v>
+        <v>904.3944729040995</v>
       </c>
       <c r="H47" t="n">
-        <v>236.65</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>235</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2309,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C48" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E48" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F48" t="n">
-        <v>229.28</v>
+        <v>193.9922</v>
       </c>
       <c r="G48" t="n">
-        <v>238.5333333333333</v>
+        <v>1098.386672904099</v>
       </c>
       <c r="H48" t="n">
-        <v>236.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>235</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2350,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C49" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D49" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E49" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F49" t="n">
-        <v>2</v>
+        <v>550.6722</v>
       </c>
       <c r="G49" t="n">
-        <v>238.6666666666667</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H49" t="n">
-        <v>236.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>235</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2391,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C50" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E50" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F50" t="n">
-        <v>29.2259</v>
+        <v>1665</v>
       </c>
       <c r="G50" t="n">
-        <v>238.7333333333333</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H50" t="n">
-        <v>236.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>235</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,33 +2435,36 @@
         <v>238</v>
       </c>
       <c r="C51" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D51" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E51" t="n">
         <v>238</v>
       </c>
       <c r="F51" t="n">
-        <v>30.1529</v>
+        <v>278</v>
       </c>
       <c r="G51" t="n">
-        <v>238.8666666666667</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H51" t="n">
-        <v>237.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>235</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2473,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C52" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D52" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E52" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F52" t="n">
-        <v>3036.1757</v>
+        <v>139</v>
       </c>
       <c r="G52" t="n">
-        <v>238.9333333333333</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H52" t="n">
-        <v>237.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>235</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2514,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C53" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D53" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E53" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F53" t="n">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="G53" t="n">
-        <v>239.0666666666667</v>
+        <v>2899.058872904099</v>
       </c>
       <c r="H53" t="n">
-        <v>237.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>235</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2555,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E54" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F54" t="n">
-        <v>1557.5815</v>
+        <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>239.0666666666667</v>
+        <v>1899.058872904099</v>
       </c>
       <c r="H54" t="n">
-        <v>237.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>235</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2596,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C55" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D55" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F55" t="n">
-        <v>618.7655999999999</v>
+        <v>11036.8598</v>
       </c>
       <c r="G55" t="n">
-        <v>239.0666666666667</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H55" t="n">
-        <v>237.55</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>235</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2637,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E56" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F56" t="n">
-        <v>1018</v>
+        <v>250</v>
       </c>
       <c r="G56" t="n">
-        <v>239</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H56" t="n">
-        <v>237.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>235</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2678,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C57" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D57" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E57" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F57" t="n">
-        <v>62.5875</v>
+        <v>500</v>
       </c>
       <c r="G57" t="n">
-        <v>239.0666666666667</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H57" t="n">
-        <v>237.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>235</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2719,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C58" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D58" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E58" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F58" t="n">
-        <v>507.7699</v>
+        <v>6.2058</v>
       </c>
       <c r="G58" t="n">
-        <v>239</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H58" t="n">
-        <v>237.95</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>235</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2760,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C59" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D59" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E59" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F59" t="n">
-        <v>5541.7687</v>
+        <v>250</v>
       </c>
       <c r="G59" t="n">
-        <v>239.0666666666667</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H59" t="n">
-        <v>238.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>235</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2801,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C60" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D60" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E60" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F60" t="n">
-        <v>866.9109</v>
+        <v>2195.8949</v>
       </c>
       <c r="G60" t="n">
-        <v>239.2</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H60" t="n">
-        <v>238.25</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>235</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2842,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C61" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D61" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E61" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F61" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>239.1333333333333</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H61" t="n">
-        <v>238.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>235</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2883,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C62" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D62" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E62" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>5750</v>
       </c>
       <c r="G62" t="n">
-        <v>239.2666666666667</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H62" t="n">
-        <v>238.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>235</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2924,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C63" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D63" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E63" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F63" t="n">
-        <v>199.8397</v>
+        <v>1600.4302</v>
       </c>
       <c r="G63" t="n">
-        <v>239.4</v>
+        <v>11335.4884729041</v>
       </c>
       <c r="H63" t="n">
-        <v>238.5</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>235</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2965,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C64" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D64" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E64" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F64" t="n">
-        <v>1802</v>
+        <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>239.4666666666667</v>
+        <v>11337.4884729041</v>
       </c>
       <c r="H64" t="n">
-        <v>238.55</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>235</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +3006,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C65" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D65" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E65" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="G65" t="n">
-        <v>239.5333333333333</v>
+        <v>11205.4884729041</v>
       </c>
       <c r="H65" t="n">
-        <v>238.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>1</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>235</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +3047,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C66" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E66" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F66" t="n">
-        <v>138</v>
+        <v>1360</v>
       </c>
       <c r="G66" t="n">
-        <v>239.6</v>
+        <v>12565.4884729041</v>
       </c>
       <c r="H66" t="n">
-        <v>238.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>235</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +3088,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C67" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D67" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E67" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F67" t="n">
-        <v>2920.2833</v>
+        <v>19044.7129</v>
       </c>
       <c r="G67" t="n">
-        <v>239.6666666666667</v>
+        <v>12565.4884729041</v>
       </c>
       <c r="H67" t="n">
-        <v>238.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>235</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +3129,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C68" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D68" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E68" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F68" t="n">
-        <v>149.2555647302</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>239.7333333333333</v>
+        <v>12566.4884729041</v>
       </c>
       <c r="H68" t="n">
-        <v>238.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>235</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +3170,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C69" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D69" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E69" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F69" t="n">
-        <v>8378.957399999999</v>
+        <v>120.0596</v>
       </c>
       <c r="G69" t="n">
-        <v>239.8666666666667</v>
+        <v>12566.4884729041</v>
       </c>
       <c r="H69" t="n">
-        <v>238.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>235</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +3211,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D70" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E70" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F70" t="n">
-        <v>10157</v>
+        <v>2001</v>
       </c>
       <c r="G70" t="n">
-        <v>240</v>
+        <v>14567.4884729041</v>
       </c>
       <c r="H70" t="n">
-        <v>238.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>1</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>235</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,24 +3264,27 @@
         <v>239</v>
       </c>
       <c r="F71" t="n">
-        <v>5000</v>
+        <v>5829.8678</v>
       </c>
       <c r="G71" t="n">
-        <v>240</v>
+        <v>8737.620672904099</v>
       </c>
       <c r="H71" t="n">
-        <v>238.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>1</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>235</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,7 +3293,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C72" t="n">
         <v>240</v>
@@ -3107,27 +3302,30 @@
         <v>240</v>
       </c>
       <c r="E72" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>5029</v>
       </c>
       <c r="G72" t="n">
-        <v>240</v>
+        <v>13766.6206729041</v>
       </c>
       <c r="H72" t="n">
-        <v>238.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>235</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +3334,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C73" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D73" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E73" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F73" t="n">
-        <v>919.0574</v>
+        <v>227</v>
       </c>
       <c r="G73" t="n">
-        <v>240.1333333333333</v>
+        <v>13539.6206729041</v>
       </c>
       <c r="H73" t="n">
-        <v>238.9</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>1</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>235</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +3375,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C74" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D74" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E74" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F74" t="n">
-        <v>515</v>
+        <v>294.0433</v>
       </c>
       <c r="G74" t="n">
-        <v>240.2</v>
+        <v>13539.6206729041</v>
       </c>
       <c r="H74" t="n">
-        <v>238.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>1</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>235</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +3416,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C75" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D75" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E75" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F75" t="n">
-        <v>448</v>
+        <v>2224.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>240.2</v>
+        <v>11314.6207729041</v>
       </c>
       <c r="H75" t="n">
-        <v>238.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>235</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3250,36 +3457,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C76" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D76" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E76" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F76" t="n">
-        <v>2053.6876</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>240.4666666666667</v>
+        <v>11315.6207729041</v>
       </c>
       <c r="H76" t="n">
-        <v>238.95</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>1</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>235</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3498,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C77" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D77" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E77" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F77" t="n">
-        <v>148.8824</v>
+        <v>229.28</v>
       </c>
       <c r="G77" t="n">
-        <v>240.1333333333333</v>
+        <v>11086.3407729041</v>
       </c>
       <c r="H77" t="n">
-        <v>238.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>1</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>235</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3539,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C78" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D78" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E78" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F78" t="n">
-        <v>10112.929</v>
+        <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>239.8</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H78" t="n">
-        <v>238.9</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>235</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,27 +3589,30 @@
         <v>239</v>
       </c>
       <c r="E79" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F79" t="n">
-        <v>3649</v>
+        <v>29.2259</v>
       </c>
       <c r="G79" t="n">
-        <v>239.7333333333333</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H79" t="n">
-        <v>238.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>1</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>235</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,33 +3624,36 @@
         <v>238</v>
       </c>
       <c r="C80" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E80" t="n">
         <v>238</v>
       </c>
       <c r="F80" t="n">
-        <v>5306.6048</v>
+        <v>30.1529</v>
       </c>
       <c r="G80" t="n">
-        <v>239.7333333333333</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H80" t="n">
-        <v>238.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>235</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3662,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C81" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D81" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E81" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F81" t="n">
-        <v>4779.9998</v>
+        <v>3036.1757</v>
       </c>
       <c r="G81" t="n">
-        <v>239.8</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H81" t="n">
-        <v>239.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>1</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>235</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3703,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C82" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D82" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E82" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F82" t="n">
-        <v>7237.7992</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>239.9333333333333</v>
+        <v>11089.3407729041</v>
       </c>
       <c r="H82" t="n">
-        <v>239.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>1</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>235</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3516,36 +3744,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C83" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E83" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F83" t="n">
-        <v>219</v>
+        <v>1557.5815</v>
       </c>
       <c r="G83" t="n">
-        <v>240</v>
+        <v>9531.759272904097</v>
       </c>
       <c r="H83" t="n">
-        <v>239.15</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>1</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>235</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3785,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C84" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D84" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E84" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F84" t="n">
-        <v>13.0434</v>
+        <v>618.7655999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>239.8</v>
+        <v>9531.759272904097</v>
       </c>
       <c r="H84" t="n">
-        <v>239.1333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>1</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>235</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3826,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C85" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E85" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F85" t="n">
-        <v>157</v>
+        <v>1018</v>
       </c>
       <c r="G85" t="n">
-        <v>239.7333333333333</v>
+        <v>9531.759272904097</v>
       </c>
       <c r="H85" t="n">
-        <v>239.2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>235</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3642,24 +3879,27 @@
         <v>240</v>
       </c>
       <c r="F86" t="n">
-        <v>442</v>
+        <v>62.5875</v>
       </c>
       <c r="G86" t="n">
-        <v>239.8</v>
+        <v>9594.346772904097</v>
       </c>
       <c r="H86" t="n">
-        <v>239.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>235</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3908,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C87" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D87" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E87" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F87" t="n">
-        <v>1000</v>
+        <v>507.7699</v>
       </c>
       <c r="G87" t="n">
-        <v>239.6</v>
+        <v>9086.576872904097</v>
       </c>
       <c r="H87" t="n">
-        <v>239.2166666666667</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>235</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3706,36 +3949,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C88" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D88" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E88" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>5541.7687</v>
       </c>
       <c r="G88" t="n">
-        <v>239.4666666666667</v>
+        <v>14628.3455729041</v>
       </c>
       <c r="H88" t="n">
-        <v>239.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>235</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3990,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C89" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D89" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E89" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F89" t="n">
-        <v>1430.9999</v>
+        <v>866.9109</v>
       </c>
       <c r="G89" t="n">
-        <v>239.3333333333333</v>
+        <v>15495.2564729041</v>
       </c>
       <c r="H89" t="n">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>235</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3794,24 +4043,27 @@
         <v>237</v>
       </c>
       <c r="F90" t="n">
-        <v>62.431</v>
+        <v>500</v>
       </c>
       <c r="G90" t="n">
-        <v>239.0666666666667</v>
+        <v>14995.2564729041</v>
       </c>
       <c r="H90" t="n">
-        <v>239.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>235</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +4072,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C91" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D91" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E91" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F91" t="n">
-        <v>2497</v>
+        <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>238.9333333333333</v>
+        <v>14997.2564729041</v>
       </c>
       <c r="H91" t="n">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>235</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +4113,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C92" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D92" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E92" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F92" t="n">
-        <v>13.0434</v>
+        <v>199.8397</v>
       </c>
       <c r="G92" t="n">
-        <v>239.0666666666667</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H92" t="n">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>235</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +4154,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C93" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D93" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E93" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F93" t="n">
-        <v>6.2204</v>
+        <v>1802</v>
       </c>
       <c r="G93" t="n">
-        <v>239.2</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H93" t="n">
-        <v>239.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>235</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +4195,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C94" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D94" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E94" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F94" t="n">
-        <v>18918.8468</v>
+        <v>250</v>
       </c>
       <c r="G94" t="n">
-        <v>239.1333333333333</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H94" t="n">
-        <v>239.25</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>235</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +4236,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C95" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D95" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E95" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F95" t="n">
-        <v>3020.5535</v>
+        <v>138</v>
       </c>
       <c r="G95" t="n">
-        <v>238.8</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H95" t="n">
-        <v>239.2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>235</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +4277,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C96" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D96" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E96" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F96" t="n">
-        <v>601.7451</v>
+        <v>2920.2833</v>
       </c>
       <c r="G96" t="n">
-        <v>238.4</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H96" t="n">
-        <v>239.1666666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>235</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +4318,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C97" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D97" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E97" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F97" t="n">
-        <v>188</v>
+        <v>149.2555647302</v>
       </c>
       <c r="G97" t="n">
-        <v>237.9333333333333</v>
+        <v>14946.6723376343</v>
       </c>
       <c r="H97" t="n">
-        <v>239.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>235</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +4359,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C98" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D98" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E98" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F98" t="n">
-        <v>3186.0654</v>
+        <v>8378.957399999999</v>
       </c>
       <c r="G98" t="n">
-        <v>237.5333333333333</v>
+        <v>14946.6723376343</v>
       </c>
       <c r="H98" t="n">
-        <v>239.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>235</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,37 +4400,40 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C99" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D99" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E99" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F99" t="n">
-        <v>324.2161</v>
+        <v>10157</v>
       </c>
       <c r="G99" t="n">
-        <v>237.4</v>
+        <v>14946.6723376343</v>
       </c>
       <c r="H99" t="n">
-        <v>239.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>235</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1.020531914893617</v>
       </c>
     </row>
     <row r="100">
@@ -4162,36 +4441,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C100" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D100" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E100" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F100" t="n">
-        <v>146.6992</v>
+        <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>237.1333333333333</v>
+        <v>9946.672337634298</v>
       </c>
       <c r="H100" t="n">
-        <v>238.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +4476,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C101" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D101" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E101" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F101" t="n">
-        <v>299.0937</v>
+        <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>236.8666666666667</v>
+        <v>9947.672337634298</v>
       </c>
       <c r="H101" t="n">
-        <v>238.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +4511,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C102" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D102" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E102" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F102" t="n">
-        <v>45.3301</v>
+        <v>919.0574</v>
       </c>
       <c r="G102" t="n">
-        <v>236.8666666666667</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H102" t="n">
-        <v>238.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4276,36 +4546,33 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C103" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D103" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E103" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F103" t="n">
-        <v>187.9999</v>
+        <v>515</v>
       </c>
       <c r="G103" t="n">
-        <v>236.6666666666667</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H103" t="n">
-        <v>238.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4581,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C104" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D104" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E104" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F104" t="n">
-        <v>1566.3383</v>
+        <v>448</v>
       </c>
       <c r="G104" t="n">
-        <v>236.4</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H104" t="n">
-        <v>238.75</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,36 +4616,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C105" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D105" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E105" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F105" t="n">
-        <v>8853.363799999999</v>
+        <v>2053.6876</v>
       </c>
       <c r="G105" t="n">
-        <v>236.2</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H105" t="n">
-        <v>238.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4390,36 +4651,33 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C106" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D106" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E106" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F106" t="n">
-        <v>2247.8468</v>
+        <v>148.8824</v>
       </c>
       <c r="G106" t="n">
-        <v>235.8666666666667</v>
+        <v>10717.8473376343</v>
       </c>
       <c r="H106" t="n">
-        <v>238.6</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4428,36 +4686,1048 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C107" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D107" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E107" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F107" t="n">
-        <v>6754</v>
+        <v>10112.929</v>
       </c>
       <c r="G107" t="n">
-        <v>235.5333333333333</v>
+        <v>604.9183376342971</v>
       </c>
       <c r="H107" t="n">
-        <v>238.5</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>239</v>
+      </c>
+      <c r="C108" t="n">
+        <v>239</v>
+      </c>
+      <c r="D108" t="n">
+        <v>239</v>
+      </c>
+      <c r="E108" t="n">
+        <v>238</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3649</v>
+      </c>
+      <c r="G108" t="n">
+        <v>4253.918337634297</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>238</v>
+      </c>
+      <c r="C109" t="n">
+        <v>240</v>
+      </c>
+      <c r="D109" t="n">
+        <v>240</v>
+      </c>
+      <c r="E109" t="n">
+        <v>238</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5306.6048</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9560.523137634296</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>241</v>
+      </c>
+      <c r="C110" t="n">
+        <v>241</v>
+      </c>
+      <c r="D110" t="n">
+        <v>241</v>
+      </c>
+      <c r="E110" t="n">
+        <v>241</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4779.9998</v>
+      </c>
+      <c r="G110" t="n">
+        <v>14340.5229376343</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>241</v>
+      </c>
+      <c r="C111" t="n">
+        <v>242</v>
+      </c>
+      <c r="D111" t="n">
+        <v>242</v>
+      </c>
+      <c r="E111" t="n">
+        <v>241</v>
+      </c>
+      <c r="F111" t="n">
+        <v>7237.7992</v>
+      </c>
+      <c r="G111" t="n">
+        <v>21578.3221376343</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>242</v>
+      </c>
+      <c r="C112" t="n">
+        <v>242</v>
+      </c>
+      <c r="D112" t="n">
+        <v>242</v>
+      </c>
+      <c r="E112" t="n">
+        <v>242</v>
+      </c>
+      <c r="F112" t="n">
+        <v>219</v>
+      </c>
+      <c r="G112" t="n">
+        <v>21578.3221376343</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>238</v>
+      </c>
+      <c r="C113" t="n">
+        <v>238</v>
+      </c>
+      <c r="D113" t="n">
+        <v>238</v>
+      </c>
+      <c r="E113" t="n">
+        <v>238</v>
+      </c>
+      <c r="F113" t="n">
+        <v>13.0434</v>
+      </c>
+      <c r="G113" t="n">
+        <v>21565.2787376343</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>240</v>
+      </c>
+      <c r="C114" t="n">
+        <v>240</v>
+      </c>
+      <c r="D114" t="n">
+        <v>240</v>
+      </c>
+      <c r="E114" t="n">
+        <v>240</v>
+      </c>
+      <c r="F114" t="n">
+        <v>157</v>
+      </c>
+      <c r="G114" t="n">
+        <v>21722.2787376343</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>240</v>
+      </c>
+      <c r="C115" t="n">
+        <v>240</v>
+      </c>
+      <c r="D115" t="n">
+        <v>240</v>
+      </c>
+      <c r="E115" t="n">
+        <v>240</v>
+      </c>
+      <c r="F115" t="n">
+        <v>442</v>
+      </c>
+      <c r="G115" t="n">
+        <v>21722.2787376343</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>238</v>
+      </c>
+      <c r="C116" t="n">
+        <v>237</v>
+      </c>
+      <c r="D116" t="n">
+        <v>238</v>
+      </c>
+      <c r="E116" t="n">
+        <v>237</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G116" t="n">
+        <v>20722.2787376343</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>239</v>
+      </c>
+      <c r="C117" t="n">
+        <v>239</v>
+      </c>
+      <c r="D117" t="n">
+        <v>239</v>
+      </c>
+      <c r="E117" t="n">
+        <v>239</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>20723.2787376343</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>239</v>
+      </c>
+      <c r="C118" t="n">
+        <v>239</v>
+      </c>
+      <c r="D118" t="n">
+        <v>239</v>
+      </c>
+      <c r="E118" t="n">
+        <v>239</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1430.9999</v>
+      </c>
+      <c r="G118" t="n">
+        <v>20723.2787376343</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>237</v>
+      </c>
+      <c r="C119" t="n">
+        <v>237</v>
+      </c>
+      <c r="D119" t="n">
+        <v>237</v>
+      </c>
+      <c r="E119" t="n">
+        <v>237</v>
+      </c>
+      <c r="F119" t="n">
+        <v>62.431</v>
+      </c>
+      <c r="G119" t="n">
+        <v>20660.8477376343</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>239</v>
+      </c>
+      <c r="C120" t="n">
+        <v>239</v>
+      </c>
+      <c r="D120" t="n">
+        <v>239</v>
+      </c>
+      <c r="E120" t="n">
+        <v>239</v>
+      </c>
+      <c r="F120" t="n">
+        <v>2497</v>
+      </c>
+      <c r="G120" t="n">
+        <v>23157.8477376343</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>238</v>
+      </c>
+      <c r="C121" t="n">
+        <v>238</v>
+      </c>
+      <c r="D121" t="n">
+        <v>238</v>
+      </c>
+      <c r="E121" t="n">
+        <v>238</v>
+      </c>
+      <c r="F121" t="n">
+        <v>13.0434</v>
+      </c>
+      <c r="G121" t="n">
+        <v>23144.8043376343</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>237</v>
+      </c>
+      <c r="C122" t="n">
+        <v>237</v>
+      </c>
+      <c r="D122" t="n">
+        <v>237</v>
+      </c>
+      <c r="E122" t="n">
+        <v>237</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6.2204</v>
+      </c>
+      <c r="G122" t="n">
+        <v>23138.5839376343</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>237</v>
+      </c>
+      <c r="C123" t="n">
+        <v>238</v>
+      </c>
+      <c r="D123" t="n">
+        <v>238</v>
+      </c>
+      <c r="E123" t="n">
+        <v>234</v>
+      </c>
+      <c r="F123" t="n">
+        <v>18918.8468</v>
+      </c>
+      <c r="G123" t="n">
+        <v>42057.4307376343</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>235</v>
+      </c>
+      <c r="C124" t="n">
+        <v>235</v>
+      </c>
+      <c r="D124" t="n">
+        <v>235</v>
+      </c>
+      <c r="E124" t="n">
+        <v>235</v>
+      </c>
+      <c r="F124" t="n">
+        <v>3020.5535</v>
+      </c>
+      <c r="G124" t="n">
+        <v>39036.8772376343</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>235</v>
+      </c>
+      <c r="C125" t="n">
+        <v>235</v>
+      </c>
+      <c r="D125" t="n">
+        <v>235</v>
+      </c>
+      <c r="E125" t="n">
+        <v>235</v>
+      </c>
+      <c r="F125" t="n">
+        <v>601.7451</v>
+      </c>
+      <c r="G125" t="n">
+        <v>39036.8772376343</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>235</v>
+      </c>
+      <c r="C126" t="n">
+        <v>235</v>
+      </c>
+      <c r="D126" t="n">
+        <v>235</v>
+      </c>
+      <c r="E126" t="n">
+        <v>235</v>
+      </c>
+      <c r="F126" t="n">
+        <v>188</v>
+      </c>
+      <c r="G126" t="n">
+        <v>39036.8772376343</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>236</v>
+      </c>
+      <c r="C127" t="n">
+        <v>236</v>
+      </c>
+      <c r="D127" t="n">
+        <v>236</v>
+      </c>
+      <c r="E127" t="n">
+        <v>236</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3186.0654</v>
+      </c>
+      <c r="G127" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>236</v>
+      </c>
+      <c r="C128" t="n">
+        <v>236</v>
+      </c>
+      <c r="D128" t="n">
+        <v>236</v>
+      </c>
+      <c r="E128" t="n">
+        <v>236</v>
+      </c>
+      <c r="F128" t="n">
+        <v>324.2161</v>
+      </c>
+      <c r="G128" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>236</v>
+      </c>
+      <c r="C129" t="n">
+        <v>236</v>
+      </c>
+      <c r="D129" t="n">
+        <v>236</v>
+      </c>
+      <c r="E129" t="n">
+        <v>236</v>
+      </c>
+      <c r="F129" t="n">
+        <v>146.6992</v>
+      </c>
+      <c r="G129" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>236</v>
+      </c>
+      <c r="C130" t="n">
+        <v>236</v>
+      </c>
+      <c r="D130" t="n">
+        <v>236</v>
+      </c>
+      <c r="E130" t="n">
+        <v>236</v>
+      </c>
+      <c r="F130" t="n">
+        <v>299.0937</v>
+      </c>
+      <c r="G130" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>237</v>
+      </c>
+      <c r="C131" t="n">
+        <v>237</v>
+      </c>
+      <c r="D131" t="n">
+        <v>237</v>
+      </c>
+      <c r="E131" t="n">
+        <v>237</v>
+      </c>
+      <c r="F131" t="n">
+        <v>45.3301</v>
+      </c>
+      <c r="G131" t="n">
+        <v>42268.2727376343</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>236</v>
+      </c>
+      <c r="C132" t="n">
+        <v>236</v>
+      </c>
+      <c r="D132" t="n">
+        <v>236</v>
+      </c>
+      <c r="E132" t="n">
+        <v>236</v>
+      </c>
+      <c r="F132" t="n">
+        <v>187.9999</v>
+      </c>
+      <c r="G132" t="n">
+        <v>42080.27283763429</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>236</v>
+      </c>
+      <c r="C133" t="n">
+        <v>235</v>
+      </c>
+      <c r="D133" t="n">
+        <v>236</v>
+      </c>
+      <c r="E133" t="n">
+        <v>235</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1566.3383</v>
+      </c>
+      <c r="G133" t="n">
+        <v>40513.93453763429</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>235</v>
+      </c>
+      <c r="C134" t="n">
+        <v>234</v>
+      </c>
+      <c r="D134" t="n">
+        <v>235</v>
+      </c>
+      <c r="E134" t="n">
+        <v>234</v>
+      </c>
+      <c r="F134" t="n">
+        <v>8853.363799999999</v>
+      </c>
+      <c r="G134" t="n">
+        <v>31660.57073763429</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>234</v>
+      </c>
+      <c r="C135" t="n">
+        <v>234</v>
+      </c>
+      <c r="D135" t="n">
+        <v>234</v>
+      </c>
+      <c r="E135" t="n">
+        <v>234</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2247.8468</v>
+      </c>
+      <c r="G135" t="n">
+        <v>31660.57073763429</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>234</v>
+      </c>
+      <c r="C136" t="n">
+        <v>233</v>
+      </c>
+      <c r="D136" t="n">
+        <v>234</v>
+      </c>
+      <c r="E136" t="n">
+        <v>233</v>
+      </c>
+      <c r="F136" t="n">
+        <v>6754</v>
+      </c>
+      <c r="G136" t="n">
+        <v>24906.57073763429</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M136"/>
+  <dimension ref="A1:N136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>416</v>
       </c>
       <c r="G2" t="n">
-        <v>944.9067729040999</v>
+        <v>233</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>341</v>
       </c>
       <c r="G3" t="n">
-        <v>944.9067729040999</v>
+        <v>233</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>945.9067729040999</v>
+        <v>233</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>613.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>331.9068729040998</v>
+        <v>233</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>332.9068729040998</v>
+        <v>234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>266.3241</v>
       </c>
       <c r="G7" t="n">
-        <v>66.58277290409984</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>1</v>
@@ -641,6 +651,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -662,7 +673,7 @@
         <v>5448.6601</v>
       </c>
       <c r="G8" t="n">
-        <v>5515.2428729041</v>
+        <v>233.6666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -682,6 +693,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>5516.2428729041</v>
+        <v>234</v>
       </c>
       <c r="H9" t="n">
         <v>1</v>
@@ -725,6 +737,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,7 +759,7 @@
         <v>1991.7375</v>
       </c>
       <c r="G10" t="n">
-        <v>3524.5053729041</v>
+        <v>234.3333333333333</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -766,6 +779,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -787,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>3525.5053729041</v>
+        <v>234.3333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -807,6 +821,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -828,7 +843,7 @@
         <v>343.458</v>
       </c>
       <c r="G12" t="n">
-        <v>3182.0473729041</v>
+        <v>233</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -848,6 +863,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -869,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>3183.0473729041</v>
+        <v>234</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -889,6 +905,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -910,7 +927,7 @@
         <v>97.7152</v>
       </c>
       <c r="G14" t="n">
-        <v>3085.3321729041</v>
+        <v>233</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -930,6 +947,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -951,7 +969,7 @@
         <v>5896.2741</v>
       </c>
       <c r="G15" t="n">
-        <v>3085.3321729041</v>
+        <v>233</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -971,6 +989,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -992,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>3086.3321729041</v>
+        <v>232.3333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1012,6 +1031,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1033,7 +1053,7 @@
         <v>854.9999</v>
       </c>
       <c r="G17" t="n">
-        <v>3086.3321729041</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1055,6 +1075,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1076,7 +1097,7 @@
         <v>1702</v>
       </c>
       <c r="G18" t="n">
-        <v>3086.3321729041</v>
+        <v>233</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1096,6 +1117,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1117,7 +1139,7 @@
         <v>374.2359</v>
       </c>
       <c r="G19" t="n">
-        <v>2712.0962729041</v>
+        <v>232</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1139,6 +1161,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1160,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>2713.0962729041</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1180,6 +1203,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1201,7 +1225,7 @@
         <v>1335</v>
       </c>
       <c r="G21" t="n">
-        <v>4048.0962729041</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1221,6 +1245,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1242,7 +1267,7 @@
         <v>2910.0515</v>
       </c>
       <c r="G22" t="n">
-        <v>4048.0962729041</v>
+        <v>232.3333333333333</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1264,6 +1289,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1285,7 +1311,7 @@
         <v>169.8305</v>
       </c>
       <c r="G23" t="n">
-        <v>4048.0962729041</v>
+        <v>233</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1305,6 +1331,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1326,7 +1353,7 @@
         <v>3141</v>
       </c>
       <c r="G24" t="n">
-        <v>907.0962729040998</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
@@ -1348,6 +1375,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1369,7 +1397,7 @@
         <v>2164</v>
       </c>
       <c r="G25" t="n">
-        <v>907.0962729040998</v>
+        <v>232.3333333333333</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -1391,6 +1419,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1412,7 +1441,7 @@
         <v>921</v>
       </c>
       <c r="G26" t="n">
-        <v>-13.90372709590019</v>
+        <v>231.6666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1434,6 +1463,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1455,7 +1485,7 @@
         <v>3713</v>
       </c>
       <c r="G27" t="n">
-        <v>-13.90372709590019</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -1477,6 +1507,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1498,7 +1529,7 @@
         <v>938.3859</v>
       </c>
       <c r="G28" t="n">
-        <v>924.4821729040998</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
@@ -1520,6 +1551,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1541,7 +1573,7 @@
         <v>12.9197</v>
       </c>
       <c r="G29" t="n">
-        <v>911.5624729040998</v>
+        <v>231.3333333333333</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
@@ -1563,6 +1595,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,7 +1617,7 @@
         <v>1338.0432</v>
       </c>
       <c r="G30" t="n">
-        <v>2249.6056729041</v>
+        <v>232</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1604,6 +1637,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1625,7 +1659,7 @@
         <v>1958.5329</v>
       </c>
       <c r="G31" t="n">
-        <v>4208.138572904099</v>
+        <v>232.6666666666667</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
@@ -1647,6 +1681,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1668,7 +1703,7 @@
         <v>2775.1499</v>
       </c>
       <c r="G32" t="n">
-        <v>6983.2884729041</v>
+        <v>234.3333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1688,6 +1723,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1709,7 +1745,7 @@
         <v>100</v>
       </c>
       <c r="G33" t="n">
-        <v>7083.2884729041</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1729,6 +1765,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1750,7 +1787,7 @@
         <v>8130.7432</v>
       </c>
       <c r="G34" t="n">
-        <v>-1047.4547270959</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1770,6 +1807,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1791,7 +1829,7 @@
         <v>345.7541</v>
       </c>
       <c r="G35" t="n">
-        <v>-701.7006270959001</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1811,6 +1849,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1832,7 +1871,7 @@
         <v>5006</v>
       </c>
       <c r="G36" t="n">
-        <v>-701.7006270959001</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1852,6 +1891,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1873,7 +1913,7 @@
         <v>1669</v>
       </c>
       <c r="G37" t="n">
-        <v>-701.7006270959001</v>
+        <v>237</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1893,6 +1933,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1914,7 +1955,7 @@
         <v>15945.3325</v>
       </c>
       <c r="G38" t="n">
-        <v>15243.6318729041</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1934,6 +1975,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1955,7 +1997,7 @@
         <v>6</v>
       </c>
       <c r="G39" t="n">
-        <v>15243.6318729041</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1975,6 +2017,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1996,7 +2039,7 @@
         <v>5700</v>
       </c>
       <c r="G40" t="n">
-        <v>20943.6318729041</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2016,6 +2059,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2037,7 +2081,7 @@
         <v>450</v>
       </c>
       <c r="G41" t="n">
-        <v>21393.6318729041</v>
+        <v>239</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2057,6 +2101,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2078,7 +2123,7 @@
         <v>504.4375</v>
       </c>
       <c r="G42" t="n">
-        <v>21393.6318729041</v>
+        <v>239.6666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2098,6 +2143,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2119,7 +2165,7 @@
         <v>1891.6437</v>
       </c>
       <c r="G43" t="n">
-        <v>21393.6318729041</v>
+        <v>240</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2139,6 +2185,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2160,7 +2207,7 @@
         <v>1229.5687</v>
       </c>
       <c r="G44" t="n">
-        <v>21393.6318729041</v>
+        <v>240</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2180,6 +2227,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2201,7 +2249,7 @@
         <v>358.6248</v>
       </c>
       <c r="G45" t="n">
-        <v>21393.6318729041</v>
+        <v>240</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2221,6 +2269,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2242,7 +2291,7 @@
         <v>100</v>
       </c>
       <c r="G46" t="n">
-        <v>21393.6318729041</v>
+        <v>240</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2262,6 +2311,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2283,7 +2333,7 @@
         <v>20489.2374</v>
       </c>
       <c r="G47" t="n">
-        <v>904.3944729040995</v>
+        <v>238</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2303,6 +2353,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2324,7 +2375,7 @@
         <v>193.9922</v>
       </c>
       <c r="G48" t="n">
-        <v>1098.386672904099</v>
+        <v>237</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2344,6 +2395,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2365,7 +2417,7 @@
         <v>550.6722</v>
       </c>
       <c r="G49" t="n">
-        <v>1649.058872904099</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2385,6 +2437,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2406,7 +2459,7 @@
         <v>1665</v>
       </c>
       <c r="G50" t="n">
-        <v>1649.058872904099</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2426,6 +2479,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2447,7 +2501,7 @@
         <v>278</v>
       </c>
       <c r="G51" t="n">
-        <v>1649.058872904099</v>
+        <v>238</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2467,6 +2521,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2488,7 +2543,7 @@
         <v>139</v>
       </c>
       <c r="G52" t="n">
-        <v>1649.058872904099</v>
+        <v>238</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2508,6 +2563,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2529,7 +2585,7 @@
         <v>1250</v>
       </c>
       <c r="G53" t="n">
-        <v>2899.058872904099</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2549,6 +2605,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2570,7 +2627,7 @@
         <v>1000</v>
       </c>
       <c r="G54" t="n">
-        <v>1899.058872904099</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2590,6 +2647,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2611,7 +2669,7 @@
         <v>11036.8598</v>
       </c>
       <c r="G55" t="n">
-        <v>12935.9186729041</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2631,6 +2689,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2652,7 +2711,7 @@
         <v>250</v>
       </c>
       <c r="G56" t="n">
-        <v>12935.9186729041</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2672,6 +2731,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2693,7 +2753,7 @@
         <v>500</v>
       </c>
       <c r="G57" t="n">
-        <v>12935.9186729041</v>
+        <v>238</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2713,6 +2773,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2734,7 +2795,7 @@
         <v>6.2058</v>
       </c>
       <c r="G58" t="n">
-        <v>12935.9186729041</v>
+        <v>238</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2754,6 +2815,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2775,7 +2837,7 @@
         <v>250</v>
       </c>
       <c r="G59" t="n">
-        <v>12935.9186729041</v>
+        <v>238</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2795,6 +2857,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2816,7 +2879,7 @@
         <v>2195.8949</v>
       </c>
       <c r="G60" t="n">
-        <v>12935.9186729041</v>
+        <v>238</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2836,6 +2899,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2857,7 +2921,7 @@
         <v>3000</v>
       </c>
       <c r="G61" t="n">
-        <v>12935.9186729041</v>
+        <v>238</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2877,6 +2941,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2898,7 +2963,7 @@
         <v>5750</v>
       </c>
       <c r="G62" t="n">
-        <v>12935.9186729041</v>
+        <v>238</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2918,6 +2983,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2939,7 +3005,7 @@
         <v>1600.4302</v>
       </c>
       <c r="G63" t="n">
-        <v>11335.4884729041</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2959,6 +3025,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2980,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="n">
-        <v>11337.4884729041</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3000,6 +3067,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3021,7 +3089,7 @@
         <v>132</v>
       </c>
       <c r="G65" t="n">
-        <v>11205.4884729041</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3041,6 +3109,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3062,7 +3131,7 @@
         <v>1360</v>
       </c>
       <c r="G66" t="n">
-        <v>12565.4884729041</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3082,6 +3151,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3103,7 +3173,7 @@
         <v>19044.7129</v>
       </c>
       <c r="G67" t="n">
-        <v>12565.4884729041</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3123,6 +3193,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3144,7 +3215,7 @@
         <v>1</v>
       </c>
       <c r="G68" t="n">
-        <v>12566.4884729041</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3164,6 +3235,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3185,7 +3257,7 @@
         <v>120.0596</v>
       </c>
       <c r="G69" t="n">
-        <v>12566.4884729041</v>
+        <v>238.6666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3205,6 +3277,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3226,7 +3299,7 @@
         <v>2001</v>
       </c>
       <c r="G70" t="n">
-        <v>14567.4884729041</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3246,6 +3319,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3267,7 +3341,7 @@
         <v>5829.8678</v>
       </c>
       <c r="G71" t="n">
-        <v>8737.620672904099</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3287,6 +3361,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,7 +3383,7 @@
         <v>5029</v>
       </c>
       <c r="G72" t="n">
-        <v>13766.6206729041</v>
+        <v>239.6666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3328,6 +3403,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3349,7 +3425,7 @@
         <v>227</v>
       </c>
       <c r="G73" t="n">
-        <v>13539.6206729041</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3369,6 +3445,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3390,7 +3467,7 @@
         <v>294.0433</v>
       </c>
       <c r="G74" t="n">
-        <v>13539.6206729041</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3410,6 +3487,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3431,7 +3509,7 @@
         <v>2224.9999</v>
       </c>
       <c r="G75" t="n">
-        <v>11314.6207729041</v>
+        <v>238.6666666666667</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3451,6 +3529,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3472,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>11315.6207729041</v>
+        <v>238.6666666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3492,6 +3571,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3513,7 +3593,7 @@
         <v>229.28</v>
       </c>
       <c r="G77" t="n">
-        <v>11086.3407729041</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3533,6 +3613,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3554,7 +3635,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="n">
-        <v>11088.3407729041</v>
+        <v>238.6666666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3574,6 +3655,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3595,7 +3677,7 @@
         <v>29.2259</v>
       </c>
       <c r="G79" t="n">
-        <v>11088.3407729041</v>
+        <v>238.6666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3615,6 +3697,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3636,7 +3719,7 @@
         <v>30.1529</v>
       </c>
       <c r="G80" t="n">
-        <v>11088.3407729041</v>
+        <v>239</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3656,6 +3739,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3677,7 +3761,7 @@
         <v>3036.1757</v>
       </c>
       <c r="G81" t="n">
-        <v>11088.3407729041</v>
+        <v>239</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3697,6 +3781,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3718,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="n">
-        <v>11089.3407729041</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3738,6 +3823,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3759,7 +3845,7 @@
         <v>1557.5815</v>
       </c>
       <c r="G83" t="n">
-        <v>9531.759272904097</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3779,6 +3865,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3800,7 +3887,7 @@
         <v>618.7655999999999</v>
       </c>
       <c r="G84" t="n">
-        <v>9531.759272904097</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3820,6 +3907,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3841,7 +3929,7 @@
         <v>1018</v>
       </c>
       <c r="G85" t="n">
-        <v>9531.759272904097</v>
+        <v>239</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3861,6 +3949,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3882,7 +3971,7 @@
         <v>62.5875</v>
       </c>
       <c r="G86" t="n">
-        <v>9594.346772904097</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3902,6 +3991,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3923,7 +4013,7 @@
         <v>507.7699</v>
       </c>
       <c r="G87" t="n">
-        <v>9086.576872904097</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3943,6 +4033,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3964,7 +4055,7 @@
         <v>5541.7687</v>
       </c>
       <c r="G88" t="n">
-        <v>14628.3455729041</v>
+        <v>239.6666666666667</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3984,6 +4075,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4005,13 +4097,13 @@
         <v>866.9109</v>
       </c>
       <c r="G89" t="n">
-        <v>15495.2564729041</v>
+        <v>240</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
@@ -4019,11 +4111,14 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>1.020531914893617</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.017316017316017</v>
       </c>
     </row>
     <row r="90">
@@ -4046,26 +4141,21 @@
         <v>500</v>
       </c>
       <c r="G90" t="n">
-        <v>14995.2564729041</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>235</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4087,7 +4177,7 @@
         <v>2</v>
       </c>
       <c r="G91" t="n">
-        <v>14997.2564729041</v>
+        <v>239.6666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4096,17 +4186,12 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>235</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4128,26 +4213,21 @@
         <v>199.8397</v>
       </c>
       <c r="G92" t="n">
-        <v>14797.4167729041</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>235</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4169,26 +4249,21 @@
         <v>1802</v>
       </c>
       <c r="G93" t="n">
-        <v>14797.4167729041</v>
+        <v>240.3333333333333</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>235</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4210,7 +4285,7 @@
         <v>250</v>
       </c>
       <c r="G94" t="n">
-        <v>14797.4167729041</v>
+        <v>240</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4219,17 +4294,12 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>235</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4251,7 +4321,7 @@
         <v>138</v>
       </c>
       <c r="G95" t="n">
-        <v>14797.4167729041</v>
+        <v>240</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4260,17 +4330,12 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>235</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4292,7 +4357,7 @@
         <v>2920.2833</v>
       </c>
       <c r="G96" t="n">
-        <v>14797.4167729041</v>
+        <v>240</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4301,17 +4366,12 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>235</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4333,26 +4393,21 @@
         <v>149.2555647302</v>
       </c>
       <c r="G97" t="n">
-        <v>14946.6723376343</v>
+        <v>240.3333333333333</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>235</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4374,26 +4429,21 @@
         <v>8378.957399999999</v>
       </c>
       <c r="G98" t="n">
-        <v>14946.6723376343</v>
+        <v>240.6666666666667</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>235</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4415,7 +4465,7 @@
         <v>10157</v>
       </c>
       <c r="G99" t="n">
-        <v>14946.6723376343</v>
+        <v>241</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4424,17 +4474,12 @@
         <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>235</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>1.020531914893617</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4456,7 +4501,7 @@
         <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>9946.672337634298</v>
+        <v>240.3333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4470,6 +4515,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4491,13 +4537,13 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>9947.672337634298</v>
+        <v>240</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4505,6 +4551,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4526,13 +4573,13 @@
         <v>919.0574</v>
       </c>
       <c r="G102" t="n">
-        <v>10866.7297376343</v>
+        <v>240</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4540,6 +4587,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4561,13 +4609,13 @@
         <v>515</v>
       </c>
       <c r="G103" t="n">
-        <v>10866.7297376343</v>
+        <v>240.6666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4575,6 +4623,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4596,13 +4645,13 @@
         <v>448</v>
       </c>
       <c r="G104" t="n">
-        <v>10866.7297376343</v>
+        <v>241</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4610,6 +4659,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4631,13 +4681,13 @@
         <v>2053.6876</v>
       </c>
       <c r="G105" t="n">
-        <v>10866.7297376343</v>
+        <v>241</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4645,6 +4695,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4666,13 +4717,13 @@
         <v>148.8824</v>
       </c>
       <c r="G106" t="n">
-        <v>10717.8473376343</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4680,6 +4731,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4701,7 +4753,7 @@
         <v>10112.929</v>
       </c>
       <c r="G107" t="n">
-        <v>604.9183376342971</v>
+        <v>237.3333333333333</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4715,6 +4767,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4736,7 +4789,7 @@
         <v>3649</v>
       </c>
       <c r="G108" t="n">
-        <v>4253.918337634297</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4750,6 +4803,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4771,13 +4825,13 @@
         <v>5306.6048</v>
       </c>
       <c r="G109" t="n">
-        <v>9560.523137634296</v>
+        <v>238</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4785,6 +4839,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4806,13 +4861,13 @@
         <v>4779.9998</v>
       </c>
       <c r="G110" t="n">
-        <v>14340.5229376343</v>
+        <v>240</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4820,6 +4875,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4841,13 +4897,13 @@
         <v>7237.7992</v>
       </c>
       <c r="G111" t="n">
-        <v>21578.3221376343</v>
+        <v>241</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4855,6 +4911,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4876,7 +4933,7 @@
         <v>219</v>
       </c>
       <c r="G112" t="n">
-        <v>21578.3221376343</v>
+        <v>241.6666666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4890,6 +4947,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4911,7 +4969,7 @@
         <v>13.0434</v>
       </c>
       <c r="G113" t="n">
-        <v>21565.2787376343</v>
+        <v>240.6666666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4925,6 +4983,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4946,13 +5005,13 @@
         <v>157</v>
       </c>
       <c r="G114" t="n">
-        <v>21722.2787376343</v>
+        <v>240</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4960,6 +5019,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4981,7 +5041,7 @@
         <v>442</v>
       </c>
       <c r="G115" t="n">
-        <v>21722.2787376343</v>
+        <v>239.3333333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4995,6 +5055,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5016,7 +5077,7 @@
         <v>1000</v>
       </c>
       <c r="G116" t="n">
-        <v>20722.2787376343</v>
+        <v>239</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5030,6 +5091,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5051,13 +5113,13 @@
         <v>1</v>
       </c>
       <c r="G117" t="n">
-        <v>20723.2787376343</v>
+        <v>238.6666666666667</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5065,6 +5127,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5086,13 +5149,13 @@
         <v>1430.9999</v>
       </c>
       <c r="G118" t="n">
-        <v>20723.2787376343</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5100,6 +5163,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5121,7 +5185,7 @@
         <v>62.431</v>
       </c>
       <c r="G119" t="n">
-        <v>20660.8477376343</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5135,6 +5199,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5156,13 +5221,13 @@
         <v>2497</v>
       </c>
       <c r="G120" t="n">
-        <v>23157.8477376343</v>
+        <v>238.3333333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5170,6 +5235,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5191,7 +5257,7 @@
         <v>13.0434</v>
       </c>
       <c r="G121" t="n">
-        <v>23144.8043376343</v>
+        <v>238</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5205,6 +5271,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5226,13 +5293,13 @@
         <v>6.2204</v>
       </c>
       <c r="G122" t="n">
-        <v>23138.5839376343</v>
+        <v>238</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5240,6 +5307,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5261,7 +5329,7 @@
         <v>18918.8468</v>
       </c>
       <c r="G123" t="n">
-        <v>42057.4307376343</v>
+        <v>237.6666666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5275,6 +5343,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5296,7 +5365,7 @@
         <v>3020.5535</v>
       </c>
       <c r="G124" t="n">
-        <v>39036.8772376343</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5310,6 +5379,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5331,13 +5401,13 @@
         <v>601.7451</v>
       </c>
       <c r="G125" t="n">
-        <v>39036.8772376343</v>
+        <v>236</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5345,6 +5415,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5366,13 +5437,13 @@
         <v>188</v>
       </c>
       <c r="G126" t="n">
-        <v>39036.8772376343</v>
+        <v>235</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5380,6 +5451,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5401,7 +5473,7 @@
         <v>3186.0654</v>
       </c>
       <c r="G127" t="n">
-        <v>42222.9426376343</v>
+        <v>235.3333333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5415,6 +5487,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5436,7 +5509,7 @@
         <v>324.2161</v>
       </c>
       <c r="G128" t="n">
-        <v>42222.9426376343</v>
+        <v>235.6666666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5450,6 +5523,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5471,7 +5545,7 @@
         <v>146.6992</v>
       </c>
       <c r="G129" t="n">
-        <v>42222.9426376343</v>
+        <v>236</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5485,6 +5559,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5506,7 +5581,7 @@
         <v>299.0937</v>
       </c>
       <c r="G130" t="n">
-        <v>42222.9426376343</v>
+        <v>236</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5520,6 +5595,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5541,13 +5617,13 @@
         <v>45.3301</v>
       </c>
       <c r="G131" t="n">
-        <v>42268.2727376343</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5555,6 +5631,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5576,13 +5653,13 @@
         <v>187.9999</v>
       </c>
       <c r="G132" t="n">
-        <v>42080.27283763429</v>
+        <v>236.3333333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5590,6 +5667,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5611,13 +5689,13 @@
         <v>1566.3383</v>
       </c>
       <c r="G133" t="n">
-        <v>40513.93453763429</v>
+        <v>236</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5625,6 +5703,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5646,7 +5725,7 @@
         <v>8853.363799999999</v>
       </c>
       <c r="G134" t="n">
-        <v>31660.57073763429</v>
+        <v>235</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5660,6 +5739,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5681,7 +5761,7 @@
         <v>2247.8468</v>
       </c>
       <c r="G135" t="n">
-        <v>31660.57073763429</v>
+        <v>234.3333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5695,6 +5775,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5716,7 +5797,7 @@
         <v>6754</v>
       </c>
       <c r="G136" t="n">
-        <v>24906.57073763429</v>
+        <v>233.6666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5730,6 +5811,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N136"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C2" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D2" t="n">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E2" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F2" t="n">
-        <v>416</v>
+        <v>919</v>
       </c>
       <c r="G2" t="n">
-        <v>233</v>
+        <v>-1075.2859270959</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,32 +474,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C3" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D3" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F3" t="n">
-        <v>341</v>
+        <v>4952.5302</v>
       </c>
       <c r="G3" t="n">
-        <v>233</v>
+        <v>3877.2442729041</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>229</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -510,32 +516,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D4" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E4" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>206</v>
       </c>
       <c r="G4" t="n">
-        <v>233</v>
+        <v>3877.2442729041</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>231</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C5" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D5" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E5" t="n">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F5" t="n">
-        <v>613.9999</v>
+        <v>5058.2733</v>
       </c>
       <c r="G5" t="n">
-        <v>233</v>
+        <v>8935.5175729041</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>231</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +600,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D6" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E6" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>1767.0643</v>
       </c>
       <c r="G6" t="n">
+        <v>8935.5175729041</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>234</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,36 +642,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C7" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D7" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E7" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F7" t="n">
-        <v>266.3241</v>
+        <v>442.6741</v>
       </c>
       <c r="G7" t="n">
-        <v>232.6666666666667</v>
+        <v>8492.8434729041</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>235</v>
-      </c>
-      <c r="K7" t="n">
-        <v>235</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -658,10 +682,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" t="n">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D8" t="n">
         <v>235</v>
@@ -670,24 +694,24 @@
         <v>230</v>
       </c>
       <c r="F8" t="n">
-        <v>5448.6601</v>
+        <v>3356.3929</v>
       </c>
       <c r="G8" t="n">
-        <v>233.6666666666667</v>
+        <v>5136.4505729041</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>235</v>
-      </c>
+      <c r="J8" t="n">
+        <v>232</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M8" t="n">
@@ -700,35 +724,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C9" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D9" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="E9" t="n">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>311.3043</v>
       </c>
       <c r="G9" t="n">
-        <v>234</v>
+        <v>5136.4505729041</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>235</v>
-      </c>
-      <c r="K9" t="n">
-        <v>235</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -744,22 +764,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C10" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D10" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E10" t="n">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F10" t="n">
-        <v>1991.7375</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>234.3333333333333</v>
+        <v>5137.4505729041</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -768,9 +788,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>235</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -789,19 +807,19 @@
         <v>235</v>
       </c>
       <c r="C11" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D11" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E11" t="n">
         <v>235</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>5015.0318</v>
       </c>
       <c r="G11" t="n">
-        <v>234.3333333333333</v>
+        <v>10152.4823729041</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -810,9 +828,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>235</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -828,22 +844,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C12" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D12" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E12" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F12" t="n">
-        <v>343.458</v>
+        <v>3954.8777</v>
       </c>
       <c r="G12" t="n">
-        <v>233</v>
+        <v>10152.4823729041</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -852,9 +868,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>235</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -870,22 +884,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C13" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D13" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E13" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>3610.0567</v>
       </c>
       <c r="G13" t="n">
-        <v>234</v>
+        <v>10152.4823729041</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -894,9 +908,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>235</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -912,22 +924,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C14" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D14" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E14" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F14" t="n">
-        <v>97.7152</v>
+        <v>13249.4782</v>
       </c>
       <c r="G14" t="n">
-        <v>233</v>
+        <v>10152.4823729041</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -936,9 +948,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>235</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -954,22 +964,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C15" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D15" t="n">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F15" t="n">
-        <v>5896.2741</v>
+        <v>952.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>233</v>
+        <v>10152.4823729041</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -978,9 +988,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>235</v>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -996,22 +1004,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C16" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D16" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E16" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>809</v>
       </c>
       <c r="G16" t="n">
-        <v>232.3333333333333</v>
+        <v>9343.4823729041</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1020,9 +1028,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>235</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1038,35 +1044,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C17" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D17" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E17" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F17" t="n">
-        <v>854.9999</v>
+        <v>626.8737</v>
       </c>
       <c r="G17" t="n">
-        <v>232.6666666666667</v>
+        <v>9343.4823729041</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>233</v>
-      </c>
-      <c r="K17" t="n">
-        <v>235</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1082,22 +1084,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C18" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D18" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F18" t="n">
-        <v>1702</v>
+        <v>2899</v>
       </c>
       <c r="G18" t="n">
-        <v>233</v>
+        <v>12242.4823729041</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1106,9 +1108,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>235</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1124,35 +1124,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C19" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D19" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E19" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F19" t="n">
-        <v>374.2359</v>
+        <v>1101.6991</v>
       </c>
       <c r="G19" t="n">
-        <v>232</v>
+        <v>12242.4823729041</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>233</v>
-      </c>
-      <c r="K19" t="n">
-        <v>235</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1168,22 +1164,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C20" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D20" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E20" t="n">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>2839.6326</v>
       </c>
       <c r="G20" t="n">
-        <v>231.3333333333333</v>
+        <v>12242.4823729041</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1192,9 +1188,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>235</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1210,22 +1204,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C21" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="D21" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E21" t="n">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F21" t="n">
-        <v>1335</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>231.3333333333333</v>
+        <v>12243.4823729041</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1234,9 +1228,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>235</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1252,35 +1244,31 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C22" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D22" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E22" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F22" t="n">
-        <v>2910.0515</v>
+        <v>2400</v>
       </c>
       <c r="G22" t="n">
-        <v>232.3333333333333</v>
+        <v>9843.4823729041</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>233</v>
-      </c>
-      <c r="K22" t="n">
-        <v>235</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1296,22 +1284,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C23" t="n">
         <v>233</v>
       </c>
       <c r="D23" t="n">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E23" t="n">
         <v>233</v>
       </c>
       <c r="F23" t="n">
-        <v>169.8305</v>
+        <v>6305.6155</v>
       </c>
       <c r="G23" t="n">
-        <v>233</v>
+        <v>3537.8668729041</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1320,9 +1308,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>235</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1338,35 +1324,31 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C24" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D24" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E24" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F24" t="n">
-        <v>3141</v>
+        <v>45.0398</v>
       </c>
       <c r="G24" t="n">
-        <v>232.6666666666667</v>
+        <v>3582.9066729041</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>233</v>
-      </c>
-      <c r="K24" t="n">
-        <v>235</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1382,35 +1364,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C25" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D25" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E25" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F25" t="n">
-        <v>2164</v>
+        <v>868</v>
       </c>
       <c r="G25" t="n">
-        <v>232.3333333333333</v>
+        <v>3582.9066729041</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>232</v>
-      </c>
-      <c r="K25" t="n">
-        <v>235</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1426,35 +1404,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C26" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D26" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E26" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F26" t="n">
-        <v>921</v>
+        <v>686.9999</v>
       </c>
       <c r="G26" t="n">
-        <v>231.6666666666667</v>
+        <v>2895.9067729041</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>232</v>
-      </c>
-      <c r="K26" t="n">
-        <v>235</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1470,35 +1444,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C27" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D27" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E27" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F27" t="n">
-        <v>3713</v>
+        <v>1343.513</v>
       </c>
       <c r="G27" t="n">
-        <v>231.3333333333333</v>
+        <v>2895.9067729041</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>231</v>
-      </c>
-      <c r="K27" t="n">
-        <v>235</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1514,35 +1484,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C28" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D28" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E28" t="n">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F28" t="n">
-        <v>938.3859</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>231.3333333333333</v>
+        <v>2896.9067729041</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>231</v>
-      </c>
-      <c r="K28" t="n">
-        <v>235</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1558,35 +1524,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C29" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D29" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E29" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F29" t="n">
-        <v>12.9197</v>
+        <v>1537</v>
       </c>
       <c r="G29" t="n">
-        <v>231.3333333333333</v>
+        <v>1359.9067729041</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>232</v>
-      </c>
-      <c r="K29" t="n">
-        <v>235</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1602,22 +1564,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C30" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D30" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E30" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F30" t="n">
-        <v>1338.0432</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>232</v>
+        <v>1360.9067729041</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1626,9 +1588,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>235</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1644,35 +1604,31 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C31" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E31" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F31" t="n">
-        <v>1958.5329</v>
+        <v>416</v>
       </c>
       <c r="G31" t="n">
-        <v>232.6666666666667</v>
+        <v>944.9067729040999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>233</v>
-      </c>
-      <c r="K31" t="n">
-        <v>235</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1688,22 +1644,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C32" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D32" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E32" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F32" t="n">
-        <v>2775.1499</v>
+        <v>341</v>
       </c>
       <c r="G32" t="n">
-        <v>234.3333333333333</v>
+        <v>944.9067729040999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1712,9 +1668,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>235</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1730,22 +1684,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C33" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D33" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E33" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>235.6666666666667</v>
+        <v>945.9067729040999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1754,9 +1708,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>235</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1772,22 +1724,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C34" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D34" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E34" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F34" t="n">
-        <v>8130.7432</v>
+        <v>613.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>236.3333333333333</v>
+        <v>331.9068729040998</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1796,9 +1748,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>235</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1814,22 +1764,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C35" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D35" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E35" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F35" t="n">
-        <v>345.7541</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>236.6666666666667</v>
+        <v>332.9068729040998</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1838,9 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>235</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,22 +1804,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C36" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D36" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E36" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F36" t="n">
-        <v>5006</v>
+        <v>266.3241</v>
       </c>
       <c r="G36" t="n">
-        <v>236.6666666666667</v>
+        <v>66.58277290409984</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1880,9 +1828,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>235</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1898,22 +1844,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C37" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D37" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E37" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F37" t="n">
-        <v>1669</v>
+        <v>5448.6601</v>
       </c>
       <c r="G37" t="n">
-        <v>237</v>
+        <v>5515.2428729041</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1922,9 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>235</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1940,22 +1884,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C38" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D38" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E38" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F38" t="n">
-        <v>15945.3325</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>237.3333333333333</v>
+        <v>5516.2428729041</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1964,9 +1908,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>235</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1982,22 +1924,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C39" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D39" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E39" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>1991.7375</v>
       </c>
       <c r="G39" t="n">
-        <v>237.6666666666667</v>
+        <v>3524.5053729041</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2006,9 +1948,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>235</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2024,22 +1964,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C40" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D40" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="E40" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F40" t="n">
-        <v>5700</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>238.3333333333333</v>
+        <v>3525.5053729041</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2048,9 +1988,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>235</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2066,22 +2004,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C41" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D41" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E41" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F41" t="n">
-        <v>450</v>
+        <v>343.458</v>
       </c>
       <c r="G41" t="n">
-        <v>239</v>
+        <v>3182.0473729041</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2090,9 +2028,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>235</v>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2108,22 +2044,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C42" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D42" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="E42" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F42" t="n">
-        <v>504.4375</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>239.6666666666667</v>
+        <v>3183.0473729041</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2132,9 +2068,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>235</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2150,22 +2084,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C43" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D43" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E43" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F43" t="n">
-        <v>1891.6437</v>
+        <v>97.7152</v>
       </c>
       <c r="G43" t="n">
-        <v>240</v>
+        <v>3085.3321729041</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2174,9 +2108,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>235</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2192,22 +2124,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C44" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D44" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E44" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F44" t="n">
-        <v>1229.5687</v>
+        <v>5896.2741</v>
       </c>
       <c r="G44" t="n">
-        <v>240</v>
+        <v>3085.3321729041</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2216,9 +2148,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>235</v>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2234,22 +2164,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C45" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D45" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E45" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F45" t="n">
-        <v>358.6248</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>240</v>
+        <v>3086.3321729041</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2258,9 +2188,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>235</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2276,22 +2204,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C46" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D46" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="E46" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F46" t="n">
-        <v>100</v>
+        <v>854.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>240</v>
+        <v>3086.3321729041</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2300,9 +2228,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>235</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,22 +2244,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C47" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D47" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E47" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F47" t="n">
-        <v>20489.2374</v>
+        <v>1702</v>
       </c>
       <c r="G47" t="n">
-        <v>238</v>
+        <v>3086.3321729041</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2342,9 +2268,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>235</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2360,22 +2284,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C48" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D48" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E48" t="n">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F48" t="n">
-        <v>193.9922</v>
+        <v>374.2359</v>
       </c>
       <c r="G48" t="n">
-        <v>237</v>
+        <v>2712.0962729041</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2384,9 +2308,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>235</v>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2402,22 +2324,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C49" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D49" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E49" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F49" t="n">
-        <v>550.6722</v>
+        <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>236.3333333333333</v>
+        <v>2713.0962729041</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2426,9 +2348,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>235</v>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2444,22 +2364,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C50" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D50" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E50" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F50" t="n">
-        <v>1665</v>
+        <v>1335</v>
       </c>
       <c r="G50" t="n">
-        <v>237.6666666666667</v>
+        <v>4048.0962729041</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2468,9 +2388,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>235</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2486,22 +2404,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C51" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D51" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E51" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F51" t="n">
-        <v>278</v>
+        <v>2910.0515</v>
       </c>
       <c r="G51" t="n">
-        <v>238</v>
+        <v>4048.0962729041</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2510,9 +2428,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>235</v>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2528,22 +2444,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C52" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D52" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E52" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F52" t="n">
-        <v>139</v>
+        <v>169.8305</v>
       </c>
       <c r="G52" t="n">
-        <v>238</v>
+        <v>4048.0962729041</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2552,9 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>235</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2570,22 +2484,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C53" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D53" t="n">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E53" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F53" t="n">
-        <v>1250</v>
+        <v>3141</v>
       </c>
       <c r="G53" t="n">
-        <v>238.3333333333333</v>
+        <v>907.0962729040998</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2594,9 +2508,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>235</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2612,22 +2524,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C54" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D54" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E54" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F54" t="n">
-        <v>1000</v>
+        <v>2164</v>
       </c>
       <c r="G54" t="n">
-        <v>237.6666666666667</v>
+        <v>907.0962729040998</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2636,9 +2548,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>235</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2654,22 +2564,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C55" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D55" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E55" t="n">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F55" t="n">
-        <v>11036.8598</v>
+        <v>921</v>
       </c>
       <c r="G55" t="n">
-        <v>237.6666666666667</v>
+        <v>-13.90372709590019</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2678,9 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>235</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2696,22 +2604,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C56" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D56" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E56" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F56" t="n">
-        <v>250</v>
+        <v>3713</v>
       </c>
       <c r="G56" t="n">
-        <v>237.3333333333333</v>
+        <v>-13.90372709590019</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2720,9 +2628,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>235</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2738,22 +2644,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C57" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D57" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E57" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F57" t="n">
-        <v>500</v>
+        <v>938.3859</v>
       </c>
       <c r="G57" t="n">
-        <v>238</v>
+        <v>924.4821729040998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2762,9 +2668,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>235</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2780,22 +2684,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C58" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D58" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E58" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F58" t="n">
-        <v>6.2058</v>
+        <v>12.9197</v>
       </c>
       <c r="G58" t="n">
-        <v>238</v>
+        <v>911.5624729040998</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2804,9 +2708,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>235</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,22 +2724,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C59" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D59" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E59" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F59" t="n">
-        <v>250</v>
+        <v>1338.0432</v>
       </c>
       <c r="G59" t="n">
-        <v>238</v>
+        <v>2249.6056729041</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2846,9 +2748,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>235</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2864,22 +2764,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E60" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F60" t="n">
-        <v>2195.8949</v>
+        <v>1958.5329</v>
       </c>
       <c r="G60" t="n">
-        <v>238</v>
+        <v>4208.138572904099</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2888,9 +2788,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>235</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2906,22 +2804,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C61" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D61" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E61" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F61" t="n">
-        <v>3000</v>
+        <v>2775.1499</v>
       </c>
       <c r="G61" t="n">
-        <v>238</v>
+        <v>6983.2884729041</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2930,9 +2828,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>235</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2948,22 +2844,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C62" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D62" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F62" t="n">
-        <v>5750</v>
+        <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>238</v>
+        <v>7083.2884729041</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2972,9 +2868,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>235</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2990,22 +2884,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C63" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D63" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E63" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F63" t="n">
-        <v>1600.4302</v>
+        <v>8130.7432</v>
       </c>
       <c r="G63" t="n">
-        <v>237.6666666666667</v>
+        <v>-1047.4547270959</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3014,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>235</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3032,22 +2924,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C64" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D64" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E64" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F64" t="n">
-        <v>2</v>
+        <v>345.7541</v>
       </c>
       <c r="G64" t="n">
-        <v>237.6666666666667</v>
+        <v>-701.7006270959001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3056,9 +2948,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>235</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3086,10 +2976,10 @@
         <v>237</v>
       </c>
       <c r="F65" t="n">
-        <v>132</v>
+        <v>5006</v>
       </c>
       <c r="G65" t="n">
-        <v>237.3333333333333</v>
+        <v>-701.7006270959001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3098,9 +2988,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>235</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3116,22 +3004,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C66" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D66" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E66" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F66" t="n">
-        <v>1360</v>
+        <v>1669</v>
       </c>
       <c r="G66" t="n">
-        <v>237.6666666666667</v>
+        <v>-701.7006270959001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3140,9 +3028,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>235</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3170,10 +3056,10 @@
         <v>238</v>
       </c>
       <c r="F67" t="n">
-        <v>19044.7129</v>
+        <v>15945.3325</v>
       </c>
       <c r="G67" t="n">
-        <v>237.6666666666667</v>
+        <v>15243.6318729041</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3182,9 +3068,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>235</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,22 +3084,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C68" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D68" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E68" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G68" t="n">
-        <v>238.3333333333333</v>
+        <v>15243.6318729041</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3224,9 +3108,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>235</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3242,7 +3124,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C69" t="n">
         <v>239</v>
@@ -3251,13 +3133,13 @@
         <v>239</v>
       </c>
       <c r="E69" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F69" t="n">
-        <v>120.0596</v>
+        <v>5700</v>
       </c>
       <c r="G69" t="n">
-        <v>238.6666666666667</v>
+        <v>20943.6318729041</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3266,9 +3148,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>235</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,7 +3164,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C70" t="n">
         <v>240</v>
@@ -3293,13 +3173,13 @@
         <v>240</v>
       </c>
       <c r="E70" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F70" t="n">
-        <v>2001</v>
+        <v>450</v>
       </c>
       <c r="G70" t="n">
-        <v>239.3333333333333</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3308,9 +3188,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>235</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3326,22 +3204,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C71" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D71" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E71" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F71" t="n">
-        <v>5829.8678</v>
+        <v>504.4375</v>
       </c>
       <c r="G71" t="n">
-        <v>239.3333333333333</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3350,9 +3228,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>235</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3368,7 +3244,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C72" t="n">
         <v>240</v>
@@ -3377,13 +3253,13 @@
         <v>240</v>
       </c>
       <c r="E72" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F72" t="n">
-        <v>5029</v>
+        <v>1891.6437</v>
       </c>
       <c r="G72" t="n">
-        <v>239.6666666666667</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3392,9 +3268,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>235</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3410,22 +3284,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C73" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D73" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E73" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F73" t="n">
-        <v>227</v>
+        <v>1229.5687</v>
       </c>
       <c r="G73" t="n">
-        <v>239.3333333333333</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3434,9 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>235</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3452,22 +3324,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C74" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D74" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E74" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F74" t="n">
-        <v>294.0433</v>
+        <v>358.6248</v>
       </c>
       <c r="G74" t="n">
-        <v>239.3333333333333</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3476,9 +3348,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>235</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3494,22 +3364,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C75" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D75" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E75" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F75" t="n">
-        <v>2224.9999</v>
+        <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>238.6666666666667</v>
+        <v>21393.6318729041</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3518,9 +3388,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>235</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3536,22 +3404,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C76" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D76" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E76" t="n">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F76" t="n">
-        <v>1</v>
+        <v>20489.2374</v>
       </c>
       <c r="G76" t="n">
-        <v>238.6666666666667</v>
+        <v>904.3944729040995</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3560,9 +3428,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>235</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3578,22 +3444,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C77" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D77" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E77" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F77" t="n">
-        <v>229.28</v>
+        <v>193.9922</v>
       </c>
       <c r="G77" t="n">
-        <v>238.3333333333333</v>
+        <v>1098.386672904099</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3602,9 +3468,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>235</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3620,22 +3484,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C78" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D78" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E78" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>550.6722</v>
       </c>
       <c r="G78" t="n">
-        <v>238.6666666666667</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3644,9 +3508,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>235</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3662,22 +3524,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C79" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D79" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E79" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F79" t="n">
-        <v>29.2259</v>
+        <v>1665</v>
       </c>
       <c r="G79" t="n">
-        <v>238.6666666666667</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3686,9 +3548,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>235</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3707,19 +3567,19 @@
         <v>238</v>
       </c>
       <c r="C80" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E80" t="n">
         <v>238</v>
       </c>
       <c r="F80" t="n">
-        <v>30.1529</v>
+        <v>278</v>
       </c>
       <c r="G80" t="n">
-        <v>239</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3728,9 +3588,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>235</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,22 +3604,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C81" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E81" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F81" t="n">
-        <v>3036.1757</v>
+        <v>139</v>
       </c>
       <c r="G81" t="n">
-        <v>239</v>
+        <v>1649.058872904099</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3770,9 +3628,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>235</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3788,22 +3644,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C82" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D82" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E82" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>1250</v>
       </c>
       <c r="G82" t="n">
-        <v>239.3333333333333</v>
+        <v>2899.058872904099</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3812,9 +3668,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>235</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3830,22 +3684,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C83" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D83" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E83" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F83" t="n">
-        <v>1557.5815</v>
+        <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>239.3333333333333</v>
+        <v>1899.058872904099</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3854,9 +3708,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>235</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,22 +3724,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C84" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D84" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E84" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F84" t="n">
-        <v>618.7655999999999</v>
+        <v>11036.8598</v>
       </c>
       <c r="G84" t="n">
-        <v>239.3333333333333</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3896,9 +3748,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>235</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3914,22 +3764,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C85" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D85" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E85" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F85" t="n">
-        <v>1018</v>
+        <v>250</v>
       </c>
       <c r="G85" t="n">
-        <v>239</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3938,9 +3788,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>235</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3956,22 +3804,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C86" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D86" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E86" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F86" t="n">
-        <v>62.5875</v>
+        <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>239.3333333333333</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3980,9 +3828,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>235</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3998,22 +3844,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C87" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D87" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E87" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F87" t="n">
-        <v>507.7699</v>
+        <v>6.2058</v>
       </c>
       <c r="G87" t="n">
-        <v>239.3333333333333</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -4022,9 +3868,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>235</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4040,22 +3884,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C88" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D88" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E88" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F88" t="n">
-        <v>5541.7687</v>
+        <v>250</v>
       </c>
       <c r="G88" t="n">
-        <v>239.6666666666667</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -4064,9 +3908,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>235</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4082,76 +3924,76 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C89" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D89" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E89" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F89" t="n">
-        <v>866.9109</v>
+        <v>2195.8949</v>
       </c>
       <c r="G89" t="n">
-        <v>240</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>235</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1.020531914893617</v>
-      </c>
-      <c r="N89" t="n">
-        <v>1.017316017316017</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C90" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D90" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E90" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F90" t="n">
-        <v>500</v>
+        <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>239.3333333333333</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4162,22 +4004,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C91" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D91" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E91" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F91" t="n">
-        <v>2</v>
+        <v>5750</v>
       </c>
       <c r="G91" t="n">
-        <v>239.6666666666667</v>
+        <v>12935.9186729041</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4187,7 +4029,11 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4198,32 +4044,36 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C92" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D92" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E92" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F92" t="n">
-        <v>199.8397</v>
+        <v>1600.4302</v>
       </c>
       <c r="G92" t="n">
-        <v>239.3333333333333</v>
+        <v>11335.4884729041</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4234,32 +4084,36 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C93" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D93" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E93" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F93" t="n">
-        <v>1802</v>
+        <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>240.3333333333333</v>
+        <v>11337.4884729041</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4270,35 +4124,37 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C94" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D94" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E94" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F94" t="n">
-        <v>250</v>
+        <v>132</v>
       </c>
       <c r="G94" t="n">
-        <v>240</v>
+        <v>11205.4884729041</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -4306,28 +4162,28 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C95" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D95" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E95" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F95" t="n">
-        <v>138</v>
+        <v>1360</v>
       </c>
       <c r="G95" t="n">
-        <v>240</v>
+        <v>12565.4884729041</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -4342,28 +4198,28 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C96" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D96" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E96" t="n">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F96" t="n">
-        <v>2920.2833</v>
+        <v>19044.7129</v>
       </c>
       <c r="G96" t="n">
-        <v>240</v>
+        <v>12565.4884729041</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -4378,22 +4234,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C97" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D97" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E97" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F97" t="n">
-        <v>149.2555647302</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>240.3333333333333</v>
+        <v>12566.4884729041</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4414,22 +4270,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C98" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D98" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E98" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F98" t="n">
-        <v>8378.957399999999</v>
+        <v>120.0596</v>
       </c>
       <c r="G98" t="n">
-        <v>240.6666666666667</v>
+        <v>12566.4884729041</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4450,22 +4306,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C99" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D99" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E99" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F99" t="n">
-        <v>10157</v>
+        <v>2001</v>
       </c>
       <c r="G99" t="n">
-        <v>241</v>
+        <v>14567.4884729041</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4498,10 +4354,10 @@
         <v>239</v>
       </c>
       <c r="F100" t="n">
-        <v>5000</v>
+        <v>5829.8678</v>
       </c>
       <c r="G100" t="n">
-        <v>240.3333333333333</v>
+        <v>8737.620672904099</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4522,7 +4378,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C101" t="n">
         <v>240</v>
@@ -4531,13 +4387,13 @@
         <v>240</v>
       </c>
       <c r="E101" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>5029</v>
       </c>
       <c r="G101" t="n">
-        <v>240</v>
+        <v>13766.6206729041</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4558,22 +4414,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C102" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D102" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E102" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F102" t="n">
-        <v>919.0574</v>
+        <v>227</v>
       </c>
       <c r="G102" t="n">
-        <v>240</v>
+        <v>13539.6206729041</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4594,22 +4450,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C103" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D103" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E103" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F103" t="n">
-        <v>515</v>
+        <v>294.0433</v>
       </c>
       <c r="G103" t="n">
-        <v>240.6666666666667</v>
+        <v>13539.6206729041</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4630,22 +4486,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C104" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D104" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E104" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F104" t="n">
-        <v>448</v>
+        <v>2224.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>241</v>
+        <v>11314.6207729041</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4666,22 +4522,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C105" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D105" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E105" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F105" t="n">
-        <v>2053.6876</v>
+        <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>241</v>
+        <v>11315.6207729041</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4702,22 +4558,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C106" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D106" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E106" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F106" t="n">
-        <v>148.8824</v>
+        <v>229.28</v>
       </c>
       <c r="G106" t="n">
-        <v>239.3333333333333</v>
+        <v>11086.3407729041</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4738,22 +4594,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C107" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D107" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E107" t="n">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F107" t="n">
-        <v>10112.929</v>
+        <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>237.3333333333333</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4783,19 +4639,19 @@
         <v>239</v>
       </c>
       <c r="E108" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F108" t="n">
-        <v>3649</v>
+        <v>29.2259</v>
       </c>
       <c r="G108" t="n">
-        <v>236.6666666666667</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4813,19 +4669,19 @@
         <v>238</v>
       </c>
       <c r="C109" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D109" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E109" t="n">
         <v>238</v>
       </c>
       <c r="F109" t="n">
-        <v>5306.6048</v>
+        <v>30.1529</v>
       </c>
       <c r="G109" t="n">
-        <v>238</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4846,28 +4702,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C110" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D110" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E110" t="n">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F110" t="n">
-        <v>4779.9998</v>
+        <v>3036.1757</v>
       </c>
       <c r="G110" t="n">
-        <v>240</v>
+        <v>11088.3407729041</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4882,28 +4738,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C111" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D111" t="n">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E111" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F111" t="n">
-        <v>7237.7992</v>
+        <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>241</v>
+        <v>11089.3407729041</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4918,28 +4774,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C112" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D112" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E112" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F112" t="n">
-        <v>219</v>
+        <v>1557.5815</v>
       </c>
       <c r="G112" t="n">
-        <v>241.6666666666667</v>
+        <v>9531.759272904097</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4954,28 +4810,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C113" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D113" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E113" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F113" t="n">
-        <v>13.0434</v>
+        <v>618.7655999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>240.6666666666667</v>
+        <v>9531.759272904097</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4990,28 +4846,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C114" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D114" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E114" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F114" t="n">
-        <v>157</v>
+        <v>1018</v>
       </c>
       <c r="G114" t="n">
-        <v>240</v>
+        <v>9531.759272904097</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -5038,16 +4894,16 @@
         <v>240</v>
       </c>
       <c r="F115" t="n">
-        <v>442</v>
+        <v>62.5875</v>
       </c>
       <c r="G115" t="n">
-        <v>239.3333333333333</v>
+        <v>9594.346772904097</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5062,28 +4918,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C116" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D116" t="n">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E116" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F116" t="n">
-        <v>1000</v>
+        <v>507.7699</v>
       </c>
       <c r="G116" t="n">
-        <v>239</v>
+        <v>9086.576872904097</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -5098,28 +4954,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C117" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D117" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E117" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>5541.7687</v>
       </c>
       <c r="G117" t="n">
-        <v>238.6666666666667</v>
+        <v>14628.3455729041</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -5134,28 +4990,28 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C118" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D118" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E118" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F118" t="n">
-        <v>1430.9999</v>
+        <v>866.9109</v>
       </c>
       <c r="G118" t="n">
-        <v>238.3333333333333</v>
+        <v>15495.2564729041</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5182,16 +5038,16 @@
         <v>237</v>
       </c>
       <c r="F119" t="n">
-        <v>62.431</v>
+        <v>500</v>
       </c>
       <c r="G119" t="n">
-        <v>238.3333333333333</v>
+        <v>14995.2564729041</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
@@ -5206,28 +5062,28 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C120" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D120" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E120" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F120" t="n">
-        <v>2497</v>
+        <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>238.3333333333333</v>
+        <v>14997.2564729041</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -5242,28 +5098,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C121" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D121" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E121" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F121" t="n">
-        <v>13.0434</v>
+        <v>199.8397</v>
       </c>
       <c r="G121" t="n">
-        <v>238</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5278,28 +5134,28 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C122" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D122" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E122" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F122" t="n">
-        <v>6.2204</v>
+        <v>1802</v>
       </c>
       <c r="G122" t="n">
-        <v>238</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5314,22 +5170,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C123" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D123" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E123" t="n">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F123" t="n">
-        <v>18918.8468</v>
+        <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>237.6666666666667</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5350,28 +5206,28 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C124" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D124" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E124" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F124" t="n">
-        <v>3020.5535</v>
+        <v>138</v>
       </c>
       <c r="G124" t="n">
-        <v>236.6666666666667</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5386,28 +5242,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C125" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D125" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E125" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F125" t="n">
-        <v>601.7451</v>
+        <v>2920.2833</v>
       </c>
       <c r="G125" t="n">
-        <v>236</v>
+        <v>14797.4167729041</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5422,28 +5278,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C126" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D126" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E126" t="n">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="F126" t="n">
-        <v>188</v>
+        <v>149.2555647302</v>
       </c>
       <c r="G126" t="n">
-        <v>235</v>
+        <v>14946.6723376343</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5458,22 +5314,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C127" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D127" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E127" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F127" t="n">
-        <v>3186.0654</v>
+        <v>8378.957399999999</v>
       </c>
       <c r="G127" t="n">
-        <v>235.3333333333333</v>
+        <v>14946.6723376343</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5494,28 +5350,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C128" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D128" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E128" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F128" t="n">
-        <v>324.2161</v>
+        <v>10157</v>
       </c>
       <c r="G128" t="n">
-        <v>235.6666666666667</v>
+        <v>14946.6723376343</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5530,28 +5386,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C129" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D129" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E129" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F129" t="n">
-        <v>146.6992</v>
+        <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>236</v>
+        <v>9946.672337634298</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5566,22 +5422,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C130" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D130" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E130" t="n">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F130" t="n">
-        <v>299.0937</v>
+        <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>236</v>
+        <v>9947.672337634298</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5602,28 +5458,28 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C131" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D131" t="n">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E131" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F131" t="n">
-        <v>45.3301</v>
+        <v>919.0574</v>
       </c>
       <c r="G131" t="n">
-        <v>236.3333333333333</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -5638,28 +5494,28 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C132" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D132" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E132" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="F132" t="n">
-        <v>187.9999</v>
+        <v>515</v>
       </c>
       <c r="G132" t="n">
-        <v>236.3333333333333</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5674,28 +5530,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C133" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="D133" t="n">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E133" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F133" t="n">
-        <v>1566.3383</v>
+        <v>448</v>
       </c>
       <c r="G133" t="n">
-        <v>236</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5710,22 +5566,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C134" t="n">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D134" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="E134" t="n">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F134" t="n">
-        <v>8853.363799999999</v>
+        <v>2053.6876</v>
       </c>
       <c r="G134" t="n">
-        <v>235</v>
+        <v>10866.7297376343</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5746,22 +5602,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E135" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F135" t="n">
-        <v>2247.8468</v>
+        <v>148.8824</v>
       </c>
       <c r="G135" t="n">
-        <v>234.3333333333333</v>
+        <v>10717.8473376343</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5782,22 +5638,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C136" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D136" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E136" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F136" t="n">
-        <v>6754</v>
+        <v>10112.929</v>
       </c>
       <c r="G136" t="n">
-        <v>233.6666666666667</v>
+        <v>604.9183376342971</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5813,6 +5669,1050 @@
       </c>
       <c r="N136" t="inlineStr"/>
     </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>239</v>
+      </c>
+      <c r="C137" t="n">
+        <v>239</v>
+      </c>
+      <c r="D137" t="n">
+        <v>239</v>
+      </c>
+      <c r="E137" t="n">
+        <v>238</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3649</v>
+      </c>
+      <c r="G137" t="n">
+        <v>4253.918337634297</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>238</v>
+      </c>
+      <c r="C138" t="n">
+        <v>240</v>
+      </c>
+      <c r="D138" t="n">
+        <v>240</v>
+      </c>
+      <c r="E138" t="n">
+        <v>238</v>
+      </c>
+      <c r="F138" t="n">
+        <v>5306.6048</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9560.523137634296</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>241</v>
+      </c>
+      <c r="C139" t="n">
+        <v>241</v>
+      </c>
+      <c r="D139" t="n">
+        <v>241</v>
+      </c>
+      <c r="E139" t="n">
+        <v>241</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4779.9998</v>
+      </c>
+      <c r="G139" t="n">
+        <v>14340.5229376343</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>241</v>
+      </c>
+      <c r="C140" t="n">
+        <v>242</v>
+      </c>
+      <c r="D140" t="n">
+        <v>242</v>
+      </c>
+      <c r="E140" t="n">
+        <v>241</v>
+      </c>
+      <c r="F140" t="n">
+        <v>7237.7992</v>
+      </c>
+      <c r="G140" t="n">
+        <v>21578.3221376343</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>242</v>
+      </c>
+      <c r="C141" t="n">
+        <v>242</v>
+      </c>
+      <c r="D141" t="n">
+        <v>242</v>
+      </c>
+      <c r="E141" t="n">
+        <v>242</v>
+      </c>
+      <c r="F141" t="n">
+        <v>219</v>
+      </c>
+      <c r="G141" t="n">
+        <v>21578.3221376343</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>238</v>
+      </c>
+      <c r="C142" t="n">
+        <v>238</v>
+      </c>
+      <c r="D142" t="n">
+        <v>238</v>
+      </c>
+      <c r="E142" t="n">
+        <v>238</v>
+      </c>
+      <c r="F142" t="n">
+        <v>13.0434</v>
+      </c>
+      <c r="G142" t="n">
+        <v>21565.2787376343</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>240</v>
+      </c>
+      <c r="C143" t="n">
+        <v>240</v>
+      </c>
+      <c r="D143" t="n">
+        <v>240</v>
+      </c>
+      <c r="E143" t="n">
+        <v>240</v>
+      </c>
+      <c r="F143" t="n">
+        <v>157</v>
+      </c>
+      <c r="G143" t="n">
+        <v>21722.2787376343</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>240</v>
+      </c>
+      <c r="C144" t="n">
+        <v>240</v>
+      </c>
+      <c r="D144" t="n">
+        <v>240</v>
+      </c>
+      <c r="E144" t="n">
+        <v>240</v>
+      </c>
+      <c r="F144" t="n">
+        <v>442</v>
+      </c>
+      <c r="G144" t="n">
+        <v>21722.2787376343</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>238</v>
+      </c>
+      <c r="C145" t="n">
+        <v>237</v>
+      </c>
+      <c r="D145" t="n">
+        <v>238</v>
+      </c>
+      <c r="E145" t="n">
+        <v>237</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G145" t="n">
+        <v>20722.2787376343</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>239</v>
+      </c>
+      <c r="C146" t="n">
+        <v>239</v>
+      </c>
+      <c r="D146" t="n">
+        <v>239</v>
+      </c>
+      <c r="E146" t="n">
+        <v>239</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>20723.2787376343</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>239</v>
+      </c>
+      <c r="C147" t="n">
+        <v>239</v>
+      </c>
+      <c r="D147" t="n">
+        <v>239</v>
+      </c>
+      <c r="E147" t="n">
+        <v>239</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1430.9999</v>
+      </c>
+      <c r="G147" t="n">
+        <v>20723.2787376343</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>237</v>
+      </c>
+      <c r="C148" t="n">
+        <v>237</v>
+      </c>
+      <c r="D148" t="n">
+        <v>237</v>
+      </c>
+      <c r="E148" t="n">
+        <v>237</v>
+      </c>
+      <c r="F148" t="n">
+        <v>62.431</v>
+      </c>
+      <c r="G148" t="n">
+        <v>20660.8477376343</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>239</v>
+      </c>
+      <c r="C149" t="n">
+        <v>239</v>
+      </c>
+      <c r="D149" t="n">
+        <v>239</v>
+      </c>
+      <c r="E149" t="n">
+        <v>239</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2497</v>
+      </c>
+      <c r="G149" t="n">
+        <v>23157.8477376343</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>238</v>
+      </c>
+      <c r="C150" t="n">
+        <v>238</v>
+      </c>
+      <c r="D150" t="n">
+        <v>238</v>
+      </c>
+      <c r="E150" t="n">
+        <v>238</v>
+      </c>
+      <c r="F150" t="n">
+        <v>13.0434</v>
+      </c>
+      <c r="G150" t="n">
+        <v>23144.8043376343</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>237</v>
+      </c>
+      <c r="C151" t="n">
+        <v>237</v>
+      </c>
+      <c r="D151" t="n">
+        <v>237</v>
+      </c>
+      <c r="E151" t="n">
+        <v>237</v>
+      </c>
+      <c r="F151" t="n">
+        <v>6.2204</v>
+      </c>
+      <c r="G151" t="n">
+        <v>23138.5839376343</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>237</v>
+      </c>
+      <c r="C152" t="n">
+        <v>238</v>
+      </c>
+      <c r="D152" t="n">
+        <v>238</v>
+      </c>
+      <c r="E152" t="n">
+        <v>234</v>
+      </c>
+      <c r="F152" t="n">
+        <v>18918.8468</v>
+      </c>
+      <c r="G152" t="n">
+        <v>42057.4307376343</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>235</v>
+      </c>
+      <c r="C153" t="n">
+        <v>235</v>
+      </c>
+      <c r="D153" t="n">
+        <v>235</v>
+      </c>
+      <c r="E153" t="n">
+        <v>235</v>
+      </c>
+      <c r="F153" t="n">
+        <v>3020.5535</v>
+      </c>
+      <c r="G153" t="n">
+        <v>39036.8772376343</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>235</v>
+      </c>
+      <c r="C154" t="n">
+        <v>235</v>
+      </c>
+      <c r="D154" t="n">
+        <v>235</v>
+      </c>
+      <c r="E154" t="n">
+        <v>235</v>
+      </c>
+      <c r="F154" t="n">
+        <v>601.7451</v>
+      </c>
+      <c r="G154" t="n">
+        <v>39036.8772376343</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>235</v>
+      </c>
+      <c r="C155" t="n">
+        <v>235</v>
+      </c>
+      <c r="D155" t="n">
+        <v>235</v>
+      </c>
+      <c r="E155" t="n">
+        <v>235</v>
+      </c>
+      <c r="F155" t="n">
+        <v>188</v>
+      </c>
+      <c r="G155" t="n">
+        <v>39036.8772376343</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>236</v>
+      </c>
+      <c r="C156" t="n">
+        <v>236</v>
+      </c>
+      <c r="D156" t="n">
+        <v>236</v>
+      </c>
+      <c r="E156" t="n">
+        <v>236</v>
+      </c>
+      <c r="F156" t="n">
+        <v>3186.0654</v>
+      </c>
+      <c r="G156" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>236</v>
+      </c>
+      <c r="C157" t="n">
+        <v>236</v>
+      </c>
+      <c r="D157" t="n">
+        <v>236</v>
+      </c>
+      <c r="E157" t="n">
+        <v>236</v>
+      </c>
+      <c r="F157" t="n">
+        <v>324.2161</v>
+      </c>
+      <c r="G157" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>236</v>
+      </c>
+      <c r="C158" t="n">
+        <v>236</v>
+      </c>
+      <c r="D158" t="n">
+        <v>236</v>
+      </c>
+      <c r="E158" t="n">
+        <v>236</v>
+      </c>
+      <c r="F158" t="n">
+        <v>146.6992</v>
+      </c>
+      <c r="G158" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>236</v>
+      </c>
+      <c r="C159" t="n">
+        <v>236</v>
+      </c>
+      <c r="D159" t="n">
+        <v>236</v>
+      </c>
+      <c r="E159" t="n">
+        <v>236</v>
+      </c>
+      <c r="F159" t="n">
+        <v>299.0937</v>
+      </c>
+      <c r="G159" t="n">
+        <v>42222.9426376343</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>237</v>
+      </c>
+      <c r="C160" t="n">
+        <v>237</v>
+      </c>
+      <c r="D160" t="n">
+        <v>237</v>
+      </c>
+      <c r="E160" t="n">
+        <v>237</v>
+      </c>
+      <c r="F160" t="n">
+        <v>45.3301</v>
+      </c>
+      <c r="G160" t="n">
+        <v>42268.2727376343</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>236</v>
+      </c>
+      <c r="C161" t="n">
+        <v>236</v>
+      </c>
+      <c r="D161" t="n">
+        <v>236</v>
+      </c>
+      <c r="E161" t="n">
+        <v>236</v>
+      </c>
+      <c r="F161" t="n">
+        <v>187.9999</v>
+      </c>
+      <c r="G161" t="n">
+        <v>42080.27283763429</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>236</v>
+      </c>
+      <c r="C162" t="n">
+        <v>235</v>
+      </c>
+      <c r="D162" t="n">
+        <v>236</v>
+      </c>
+      <c r="E162" t="n">
+        <v>235</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1566.3383</v>
+      </c>
+      <c r="G162" t="n">
+        <v>40513.93453763429</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>235</v>
+      </c>
+      <c r="C163" t="n">
+        <v>234</v>
+      </c>
+      <c r="D163" t="n">
+        <v>235</v>
+      </c>
+      <c r="E163" t="n">
+        <v>234</v>
+      </c>
+      <c r="F163" t="n">
+        <v>8853.363799999999</v>
+      </c>
+      <c r="G163" t="n">
+        <v>31660.57073763429</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>234</v>
+      </c>
+      <c r="C164" t="n">
+        <v>234</v>
+      </c>
+      <c r="D164" t="n">
+        <v>234</v>
+      </c>
+      <c r="E164" t="n">
+        <v>234</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2247.8468</v>
+      </c>
+      <c r="G164" t="n">
+        <v>31660.57073763429</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>234</v>
+      </c>
+      <c r="C165" t="n">
+        <v>233</v>
+      </c>
+      <c r="D165" t="n">
+        <v>234</v>
+      </c>
+      <c r="E165" t="n">
+        <v>233</v>
+      </c>
+      <c r="F165" t="n">
+        <v>6754</v>
+      </c>
+      <c r="G165" t="n">
+        <v>24906.57073763429</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:M165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>-1075.2859270959</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,24 +484,21 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
         <v>229</v>
       </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -534,24 +523,21 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
         <v>231</v>
       </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,24 +562,21 @@
         <v>8935.5175729041</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
         <v>231</v>
       </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +601,19 @@
         <v>8935.5175729041</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>234</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,22 +638,21 @@
         <v>8492.8434729041</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -700,24 +677,21 @@
         <v>5136.4505729041</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
         <v>232</v>
       </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -744,20 +718,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -782,22 +753,21 @@
         <v>5137.4505729041</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -822,22 +792,21 @@
         <v>10152.4823729041</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -864,20 +833,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,20 +870,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -944,20 +907,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -984,20 +944,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1024,20 +981,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1064,20 +1018,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1104,20 +1055,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1144,20 +1092,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1184,20 +1129,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1224,20 +1166,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1264,20 +1203,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1304,20 +1240,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1344,20 +1277,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1384,20 +1314,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1424,20 +1351,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1464,20 +1388,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1504,20 +1425,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1544,20 +1462,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1584,20 +1499,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1624,20 +1536,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1664,20 +1573,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1704,20 +1610,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1744,20 +1647,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1784,20 +1684,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1824,20 +1721,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1864,20 +1758,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1904,20 +1795,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1944,20 +1832,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1984,20 +1869,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2024,20 +1906,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2064,20 +1943,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2104,20 +1980,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2144,20 +2017,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2184,20 +2054,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2224,20 +2091,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2264,20 +2128,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2304,20 +2165,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2344,20 +2202,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2384,20 +2239,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2424,20 +2276,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2464,20 +2313,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2504,20 +2350,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2544,20 +2387,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2584,20 +2424,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2624,20 +2461,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2664,20 +2498,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2704,20 +2535,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2744,20 +2572,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2784,20 +2609,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2824,20 +2646,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2864,20 +2683,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2902,22 +2718,19 @@
         <v>-1047.4547270959</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2942,22 +2755,19 @@
         <v>-701.7006270959001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2982,22 +2792,19 @@
         <v>-701.7006270959001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3022,22 +2829,19 @@
         <v>-701.7006270959001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3064,20 +2868,17 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3104,20 +2905,17 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3144,20 +2942,17 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3184,20 +2979,17 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3224,20 +3016,17 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3264,20 +3053,17 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3304,20 +3090,17 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3344,20 +3127,17 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3384,20 +3164,17 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3424,20 +3201,17 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3464,20 +3238,17 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3504,20 +3275,17 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3544,20 +3312,17 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3584,20 +3349,17 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3624,20 +3386,17 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3662,22 +3421,17 @@
         <v>2899.058872904099</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3702,22 +3456,15 @@
         <v>1899.058872904099</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3744,20 +3491,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3782,22 +3522,15 @@
         <v>12935.9186729041</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3822,22 +3555,15 @@
         <v>12935.9186729041</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3862,22 +3588,15 @@
         <v>12935.9186729041</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3904,20 +3623,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3944,20 +3656,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3984,20 +3689,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4024,20 +3722,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4064,20 +3755,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4104,20 +3788,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4144,18 +3821,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="L94" t="n">
+        <v>1</v>
       </c>
       <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4180,18 +3852,15 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4216,18 +3885,15 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4254,16 +3920,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4288,18 +3951,15 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4326,16 +3986,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>1</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4362,16 +4019,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>1</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4398,16 +4052,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>1</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4432,18 +4083,15 @@
         <v>13539.6206729041</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4470,16 +4118,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4506,16 +4151,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4542,16 +4184,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>1</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4578,16 +4217,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>1</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4614,16 +4250,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4650,16 +4283,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4686,16 +4316,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4722,16 +4349,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4758,16 +4382,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4794,16 +4415,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4830,16 +4448,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4866,16 +4481,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4900,18 +4512,15 @@
         <v>9594.346772904097</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4938,16 +4547,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4972,18 +4578,15 @@
         <v>14628.3455729041</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5010,16 +4613,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5046,16 +4646,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5082,16 +4679,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5116,18 +4710,15 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5152,18 +4743,15 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5188,18 +4776,15 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5224,18 +4809,15 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5262,16 +4844,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5298,16 +4877,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5332,18 +4908,15 @@
         <v>14946.6723376343</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5370,16 +4943,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>1</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5406,16 +4976,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>1</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5442,16 +5009,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5478,16 +5042,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5514,16 +5075,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5550,16 +5108,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5584,18 +5139,15 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5622,16 +5174,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5658,16 +5207,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5694,16 +5240,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5730,16 +5273,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5766,16 +5306,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5802,16 +5339,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5838,16 +5372,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5872,18 +5403,15 @@
         <v>21565.2787376343</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5910,16 +5438,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5944,18 +5469,15 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5980,18 +5502,15 @@
         <v>20722.2787376343</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6016,18 +5535,15 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6052,18 +5568,15 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6090,16 +5603,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6126,16 +5636,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6162,16 +5669,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6198,16 +5702,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6234,16 +5735,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6270,16 +5768,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6306,16 +5801,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6342,16 +5834,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6378,16 +5867,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6414,16 +5900,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6450,16 +5933,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6486,16 +5966,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6522,16 +5999,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6558,16 +6032,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6594,16 +6065,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6630,16 +6098,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6664,18 +6129,15 @@
         <v>31660.57073763429</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6702,18 +6164,15 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1075.2859270959</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>229</v>
@@ -523,7 +523,7 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>231</v>
@@ -562,7 +562,7 @@
         <v>8935.5175729041</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>231</v>
@@ -601,9 +601,11 @@
         <v>8935.5175729041</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>234</v>
+      </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
@@ -638,7 +640,7 @@
         <v>8492.8434729041</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>234</v>
@@ -677,7 +679,7 @@
         <v>5136.4505729041</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>232</v>
@@ -716,9 +718,11 @@
         <v>5136.4505729041</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>230</v>
+      </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
@@ -753,7 +757,7 @@
         <v>5137.4505729041</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>230</v>
@@ -792,7 +796,7 @@
         <v>10152.4823729041</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>233</v>
@@ -2718,7 +2722,7 @@
         <v>-1047.4547270959</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2755,7 +2759,7 @@
         <v>-701.7006270959001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2792,7 +2796,7 @@
         <v>-701.7006270959001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2829,7 +2833,7 @@
         <v>-701.7006270959001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3421,16 +3425,18 @@
         <v>2899.058872904099</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L82" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
       <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
@@ -3456,11 +3462,15 @@
         <v>1899.058872904099</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3493,7 +3503,11 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3522,11 +3536,15 @@
         <v>12935.9186729041</v>
       </c>
       <c r="H85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3555,11 +3573,15 @@
         <v>12935.9186729041</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3588,11 +3610,15 @@
         <v>12935.9186729041</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3625,7 +3651,11 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3658,7 +3688,11 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3691,7 +3725,11 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3724,7 +3762,11 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3757,7 +3799,11 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3790,7 +3836,11 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3823,7 +3873,11 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3852,11 +3906,15 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3885,11 +3943,15 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3922,7 +3984,11 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3951,11 +4017,15 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3988,7 +4058,11 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4021,7 +4095,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4054,7 +4132,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4083,11 +4165,15 @@
         <v>13539.6206729041</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4120,7 +4206,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4153,7 +4243,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4186,7 +4280,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4219,7 +4317,11 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4252,7 +4354,11 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4285,7 +4391,11 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4314,14 +4424,16 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4380,7 +4492,7 @@
         <v>11089.3407729041</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4413,7 +4525,7 @@
         <v>9531.759272904097</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4446,7 +4558,7 @@
         <v>9531.759272904097</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4512,7 +4624,7 @@
         <v>9594.346772904097</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4545,7 +4657,7 @@
         <v>9086.576872904097</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4578,7 +4690,7 @@
         <v>14628.3455729041</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4611,7 +4723,7 @@
         <v>15495.2564729041</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4644,7 +4756,7 @@
         <v>14995.2564729041</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4677,7 +4789,7 @@
         <v>14997.2564729041</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4710,7 +4822,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4743,7 +4855,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4776,7 +4888,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4809,7 +4921,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4842,7 +4954,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4908,7 +5020,7 @@
         <v>14946.6723376343</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5040,7 +5152,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5073,7 +5185,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5106,7 +5218,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5139,7 +5251,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5172,7 +5284,7 @@
         <v>10717.8473376343</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5205,7 +5317,7 @@
         <v>604.9183376342971</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5238,7 +5350,7 @@
         <v>4253.918337634297</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5271,7 +5383,7 @@
         <v>9560.523137634296</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5304,7 +5416,7 @@
         <v>14340.5229376343</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5337,7 +5449,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5370,7 +5482,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5403,7 +5515,7 @@
         <v>21565.2787376343</v>
       </c>
       <c r="H142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5436,7 +5548,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5469,7 +5581,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5502,7 +5614,7 @@
         <v>20722.2787376343</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5535,7 +5647,7 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5568,7 +5680,7 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5601,7 +5713,7 @@
         <v>20660.8477376343</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5634,7 +5746,7 @@
         <v>23157.8477376343</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5667,7 +5779,7 @@
         <v>23144.8043376343</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5700,7 +5812,7 @@
         <v>23138.5839376343</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5766,7 +5878,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5799,7 +5911,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5832,7 +5944,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5865,7 +5977,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5898,7 +6010,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5931,7 +6043,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5964,7 +6076,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6030,7 +6142,7 @@
         <v>42080.27283763429</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6063,7 +6175,7 @@
         <v>40513.93453763429</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6096,7 +6208,7 @@
         <v>31660.57073763429</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6129,7 +6241,7 @@
         <v>31660.57073763429</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6162,7 +6274,7 @@
         <v>24906.57073763429</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6173,6 +6285,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-1075.2859270959</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>229</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -528,12 +522,10 @@
       <c r="I4" t="n">
         <v>231</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="n">
+        <v>231</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -567,10 +559,12 @@
       <c r="I5" t="n">
         <v>231</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>231</v>
+      </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -601,12 +595,12 @@
         <v>8935.5175729041</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>234</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>231</v>
+      </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -640,12 +634,12 @@
         <v>8492.8434729041</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>234</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>231</v>
+      </c>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -679,12 +673,12 @@
         <v>5136.4505729041</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>232</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>231</v>
+      </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -718,12 +712,12 @@
         <v>5136.4505729041</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>230</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>231</v>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -757,12 +751,12 @@
         <v>5137.4505729041</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>230</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>231</v>
+      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -796,12 +790,12 @@
         <v>10152.4823729041</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>233</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>231</v>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -838,7 +832,9 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>231</v>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -875,7 +871,9 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>231</v>
+      </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -912,7 +910,9 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>231</v>
+      </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -949,7 +949,9 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>231</v>
+      </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -986,7 +988,9 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>231</v>
+      </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1023,7 +1027,9 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>231</v>
+      </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1060,7 +1066,9 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>231</v>
+      </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1097,7 +1105,9 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>231</v>
+      </c>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1134,7 +1144,9 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>231</v>
+      </c>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1171,7 +1183,9 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>231</v>
+      </c>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1208,7 +1222,9 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>231</v>
+      </c>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1245,7 +1261,9 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>231</v>
+      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1282,7 +1300,9 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>231</v>
+      </c>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1319,7 +1339,9 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>231</v>
+      </c>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1356,7 +1378,9 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>231</v>
+      </c>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1393,7 +1417,9 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>231</v>
+      </c>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1430,7 +1456,9 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>231</v>
+      </c>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1467,7 +1495,9 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>231</v>
+      </c>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1504,7 +1534,9 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>231</v>
+      </c>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1541,7 +1573,9 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>231</v>
+      </c>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1578,7 +1612,9 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>231</v>
+      </c>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1615,7 +1651,9 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>231</v>
+      </c>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1652,7 +1690,9 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>231</v>
+      </c>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1689,7 +1729,9 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>231</v>
+      </c>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1726,7 +1768,9 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>231</v>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1763,7 +1807,9 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>231</v>
+      </c>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1800,7 +1846,9 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>231</v>
+      </c>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1837,7 +1885,9 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>231</v>
+      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,7 +1924,9 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>231</v>
+      </c>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1911,7 +1963,9 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>231</v>
+      </c>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1948,7 +2002,9 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>231</v>
+      </c>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1985,7 +2041,9 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>231</v>
+      </c>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2022,7 +2080,9 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>231</v>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2059,7 +2119,9 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>231</v>
+      </c>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2096,7 +2158,9 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>231</v>
+      </c>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2133,7 +2197,9 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>231</v>
+      </c>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2170,7 +2236,9 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>231</v>
+      </c>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2207,7 +2275,9 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>231</v>
+      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2244,7 +2314,9 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>231</v>
+      </c>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2281,7 +2353,9 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>231</v>
+      </c>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2318,7 +2392,9 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>231</v>
+      </c>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,7 +2431,9 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>231</v>
+      </c>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2392,7 +2470,9 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>231</v>
+      </c>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2429,7 +2509,9 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>231</v>
+      </c>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2466,7 +2548,9 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>231</v>
+      </c>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2503,7 +2587,9 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>231</v>
+      </c>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2540,7 +2626,9 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>231</v>
+      </c>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2577,7 +2665,9 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>231</v>
+      </c>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2614,7 +2704,9 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>231</v>
+      </c>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2651,7 +2743,9 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>231</v>
+      </c>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2688,7 +2782,9 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>231</v>
+      </c>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2725,7 +2821,9 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>231</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2762,7 +2860,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>231</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2799,7 +2899,9 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>231</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,7 +2938,9 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>231</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2873,7 +2977,9 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>231</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2910,7 +3016,9 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>231</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2947,7 +3055,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>231</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2984,7 +3094,9 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>231</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3021,7 +3133,9 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>231</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3058,7 +3172,9 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>231</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3095,7 +3211,9 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>231</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3132,7 +3250,9 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>231</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3169,7 +3289,9 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>231</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3206,7 +3328,9 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>231</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,7 +3367,9 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>231</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3280,7 +3406,9 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>231</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3317,7 +3445,9 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>231</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3354,7 +3484,9 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>231</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3391,7 +3523,9 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>231</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3428,7 +3562,9 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>231</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3465,7 +3601,9 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>231</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3502,7 +3640,9 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>231</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3539,7 +3679,9 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>231</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3576,7 +3718,9 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>231</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,7 +3757,9 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>231</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3650,7 +3796,9 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>231</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3687,7 +3835,9 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>231</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,7 +3874,9 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>231</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3761,7 +3913,9 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>231</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3798,7 +3952,9 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>231</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,7 +3991,9 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>231</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,7 +4030,9 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>231</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3909,7 +4069,9 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>231</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3943,17 +4105,19 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>231</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1</v>
+        <v>1.02530303030303</v>
       </c>
       <c r="M96" t="inlineStr"/>
     </row>
@@ -3980,15 +4144,11 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4017,15 +4177,11 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4054,15 +4210,11 @@
         <v>14567.4884729041</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4095,11 +4247,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4132,11 +4280,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4169,11 +4313,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4206,11 +4346,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4243,11 +4379,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4280,11 +4412,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4313,15 +4441,11 @@
         <v>11086.3407729041</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4350,15 +4474,11 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4387,15 +4507,11 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4424,16 +4540,14 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
       <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
@@ -4492,7 +4606,7 @@
         <v>11089.3407729041</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4525,7 +4639,7 @@
         <v>9531.759272904097</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4558,7 +4672,7 @@
         <v>9531.759272904097</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4624,7 +4738,7 @@
         <v>9594.346772904097</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4657,7 +4771,7 @@
         <v>9086.576872904097</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4690,7 +4804,7 @@
         <v>14628.3455729041</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4723,7 +4837,7 @@
         <v>15495.2564729041</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4756,7 +4870,7 @@
         <v>14995.2564729041</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4789,7 +4903,7 @@
         <v>14997.2564729041</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4822,7 +4936,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4855,7 +4969,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4888,7 +5002,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4954,7 +5068,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5152,7 +5266,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5185,7 +5299,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5218,7 +5332,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5251,7 +5365,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5284,7 +5398,7 @@
         <v>10717.8473376343</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5317,7 +5431,7 @@
         <v>604.9183376342971</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -5350,7 +5464,7 @@
         <v>4253.918337634297</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -5383,7 +5497,7 @@
         <v>9560.523137634296</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5416,7 +5530,7 @@
         <v>14340.5229376343</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5449,7 +5563,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5482,7 +5596,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5515,7 +5629,7 @@
         <v>21565.2787376343</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5548,7 +5662,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5581,7 +5695,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5614,7 +5728,7 @@
         <v>20722.2787376343</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5647,7 +5761,7 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5680,7 +5794,7 @@
         <v>20723.2787376343</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5713,7 +5827,7 @@
         <v>20660.8477376343</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5746,7 +5860,7 @@
         <v>23157.8477376343</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5779,7 +5893,7 @@
         <v>23144.8043376343</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5812,7 +5926,7 @@
         <v>23138.5839376343</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5878,7 +5992,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5911,7 +6025,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5944,7 +6058,7 @@
         <v>39036.8772376343</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5977,7 +6091,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6010,7 +6124,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6043,7 +6157,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6076,7 +6190,7 @@
         <v>42222.9426376343</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6142,7 +6256,7 @@
         <v>42080.27283763429</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6175,7 +6289,7 @@
         <v>40513.93453763429</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6208,7 +6322,7 @@
         <v>31660.57073763429</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6241,7 +6355,7 @@
         <v>31660.57073763429</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6274,7 +6388,7 @@
         <v>24906.57073763429</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6285,6 +6399,6 @@
       <c r="M165" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -451,7 +451,7 @@
         <v>-1075.2859270959</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>3877.2442729041</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>229</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -522,10 +528,12 @@
       <c r="I4" t="n">
         <v>231</v>
       </c>
-      <c r="J4" t="n">
-        <v>231</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -559,12 +567,10 @@
       <c r="I5" t="n">
         <v>231</v>
       </c>
-      <c r="J5" t="n">
-        <v>231</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L5" t="n">
@@ -598,9 +604,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>231</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -637,9 +641,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>231</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -676,9 +678,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>231</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -715,9 +715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>231</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -754,9 +752,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>231</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -793,9 +789,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>231</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -832,9 +826,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>231</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -871,9 +863,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>231</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -910,9 +900,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>231</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -949,9 +937,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>231</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -988,9 +974,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>231</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1027,9 +1011,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>231</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1066,9 +1048,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>231</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1105,9 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>231</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1144,9 +1122,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>231</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1183,9 +1159,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>231</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1222,9 +1196,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>231</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1261,9 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>231</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,9 +1270,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>231</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1339,9 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>231</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1378,9 +1344,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>231</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1417,9 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>231</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1456,9 +1418,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>231</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1495,9 +1455,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>231</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1534,9 +1492,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>231</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1573,9 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>231</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,9 +1566,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>231</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1651,9 +1603,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>231</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1690,9 +1640,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>231</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1729,9 +1677,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>231</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1768,9 +1714,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>231</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1807,9 +1751,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>231</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1846,9 +1788,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>231</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1885,9 +1825,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>231</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1924,9 +1862,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>231</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1963,9 +1899,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>231</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2002,9 +1936,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>231</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2041,9 +1973,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>231</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2080,9 +2010,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>231</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2119,9 +2047,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>231</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2158,9 +2084,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>231</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2197,9 +2121,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>231</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2236,9 +2158,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>231</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,9 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>231</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,9 +2232,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>231</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2353,9 +2269,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>231</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2392,9 +2306,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>231</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2431,9 +2343,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>231</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2470,9 +2380,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>231</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2509,9 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>231</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2548,9 +2454,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>231</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2587,9 +2491,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>231</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2626,9 +2528,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>231</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2665,9 +2565,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>231</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2704,9 +2602,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>231</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2743,9 +2639,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>231</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2782,9 +2676,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>231</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2821,9 +2713,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>231</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2860,9 +2750,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>231</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2899,9 +2787,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>231</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2938,9 +2824,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>231</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2977,9 +2861,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>231</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3016,9 +2898,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>231</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3055,9 +2935,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>231</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3094,9 +2972,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>231</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3133,9 +3009,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>231</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3172,9 +3046,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>231</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3211,9 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>231</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3250,9 +3120,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>231</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3289,9 +3157,7 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>231</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3328,9 +3194,7 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>231</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3367,9 +3231,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>231</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3406,9 +3268,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>231</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3445,9 +3305,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>231</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3484,9 +3342,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>231</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3523,9 +3379,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>231</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3562,9 +3416,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>231</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3601,9 +3453,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>231</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3640,9 +3490,7 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>231</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3679,9 +3527,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>231</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3718,9 +3564,7 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>231</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3757,9 +3601,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>231</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3796,9 +3638,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>231</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3835,9 +3675,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>231</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3874,9 +3712,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>231</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,9 +3749,7 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>231</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3952,9 +3786,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>231</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3991,9 +3823,7 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>231</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4030,9 +3860,7 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>231</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4069,9 +3897,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>231</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4105,19 +3931,17 @@
         <v>12565.4884729041</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>231</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.02530303030303</v>
+        <v>1</v>
       </c>
       <c r="M96" t="inlineStr"/>
     </row>
@@ -4144,11 +3968,15 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4177,11 +4005,15 @@
         <v>12566.4884729041</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4210,11 +4042,15 @@
         <v>14567.4884729041</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4247,7 +4083,11 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4280,7 +4120,11 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4313,7 +4157,11 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4346,7 +4194,11 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4379,7 +4231,11 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4412,7 +4268,11 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4441,11 +4301,15 @@
         <v>11086.3407729041</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4474,11 +4338,15 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4507,11 +4375,15 @@
         <v>11088.3407729041</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4544,7 +4416,11 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4577,7 +4453,11 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4610,7 +4490,11 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4643,7 +4527,11 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4676,7 +4564,11 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4709,7 +4601,11 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4742,7 +4638,11 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4775,7 +4675,11 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4808,7 +4712,11 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4841,7 +4749,11 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4874,7 +4786,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4907,7 +4823,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4940,7 +4860,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4969,14 +4893,16 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
@@ -5002,7 +4928,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -5068,7 +4994,7 @@
         <v>14797.4167729041</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5167,7 +5093,7 @@
         <v>14946.6723376343</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5200,7 +5126,7 @@
         <v>9946.672337634298</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5233,7 +5159,7 @@
         <v>9947.672337634298</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -5266,7 +5192,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -5299,7 +5225,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -5332,7 +5258,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -5365,7 +5291,7 @@
         <v>10866.7297376343</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5596,7 +5522,7 @@
         <v>21578.3221376343</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5629,7 +5555,7 @@
         <v>21565.2787376343</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5662,7 +5588,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5695,7 +5621,7 @@
         <v>21722.2787376343</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5728,7 +5654,7 @@
         <v>20722.2787376343</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5827,7 +5753,7 @@
         <v>20660.8477376343</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5893,7 +5819,7 @@
         <v>23144.8043376343</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5926,7 +5852,7 @@
         <v>23138.5839376343</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest INS.xlsx
+++ b/BackTest/2019-10-27 BackTest INS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M165"/>
+  <dimension ref="A1:L165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>919</v>
       </c>
       <c r="G2" t="n">
-        <v>-1075.2859270959</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,21 @@
         <v>4952.5302</v>
       </c>
       <c r="G3" t="n">
-        <v>3877.2442729041</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
         <v>229</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +509,21 @@
         <v>206</v>
       </c>
       <c r="G4" t="n">
-        <v>3877.2442729041</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
         <v>231</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +545,21 @@
         <v>5058.2733</v>
       </c>
       <c r="G5" t="n">
-        <v>8935.5175729041</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
         <v>231</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,22 +581,19 @@
         <v>1767.0643</v>
       </c>
       <c r="G6" t="n">
-        <v>8935.5175729041</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -635,22 +615,19 @@
         <v>442.6741</v>
       </c>
       <c r="G7" t="n">
-        <v>8492.8434729041</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,22 +649,19 @@
         <v>3356.3929</v>
       </c>
       <c r="G8" t="n">
-        <v>5136.4505729041</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -709,22 +683,19 @@
         <v>311.3043</v>
       </c>
       <c r="G9" t="n">
-        <v>5136.4505729041</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,22 +717,19 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>5137.4505729041</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -783,22 +751,19 @@
         <v>5015.0318</v>
       </c>
       <c r="G11" t="n">
-        <v>10152.4823729041</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -820,22 +785,19 @@
         <v>3954.8777</v>
       </c>
       <c r="G12" t="n">
-        <v>10152.4823729041</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -857,22 +819,19 @@
         <v>3610.0567</v>
       </c>
       <c r="G13" t="n">
-        <v>10152.4823729041</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -894,22 +853,19 @@
         <v>13249.4782</v>
       </c>
       <c r="G14" t="n">
-        <v>10152.4823729041</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -931,22 +887,19 @@
         <v>952.9999</v>
       </c>
       <c r="G15" t="n">
-        <v>10152.4823729041</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -968,22 +921,19 @@
         <v>809</v>
       </c>
       <c r="G16" t="n">
-        <v>9343.4823729041</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,22 +955,19 @@
         <v>626.8737</v>
       </c>
       <c r="G17" t="n">
-        <v>9343.4823729041</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1042,22 +989,19 @@
         <v>2899</v>
       </c>
       <c r="G18" t="n">
-        <v>12242.4823729041</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1079,22 +1023,19 @@
         <v>1101.6991</v>
       </c>
       <c r="G19" t="n">
-        <v>12242.4823729041</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1116,22 +1057,19 @@
         <v>2839.6326</v>
       </c>
       <c r="G20" t="n">
-        <v>12242.4823729041</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1153,22 +1091,19 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>12243.4823729041</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1190,22 +1125,19 @@
         <v>2400</v>
       </c>
       <c r="G22" t="n">
-        <v>9843.4823729041</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1227,22 +1159,19 @@
         <v>6305.6155</v>
       </c>
       <c r="G23" t="n">
-        <v>3537.8668729041</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1264,22 +1193,19 @@
         <v>45.0398</v>
       </c>
       <c r="G24" t="n">
-        <v>3582.9066729041</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1301,22 +1227,19 @@
         <v>868</v>
       </c>
       <c r="G25" t="n">
-        <v>3582.9066729041</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1338,22 +1261,19 @@
         <v>686.9999</v>
       </c>
       <c r="G26" t="n">
-        <v>2895.9067729041</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1375,22 +1295,19 @@
         <v>1343.513</v>
       </c>
       <c r="G27" t="n">
-        <v>2895.9067729041</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1412,22 +1329,19 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2896.9067729041</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1449,22 +1363,19 @@
         <v>1537</v>
       </c>
       <c r="G29" t="n">
-        <v>1359.9067729041</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1486,22 +1397,19 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>1360.9067729041</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1523,22 +1431,19 @@
         <v>416</v>
       </c>
       <c r="G31" t="n">
-        <v>944.9067729040999</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1560,22 +1465,19 @@
         <v>341</v>
       </c>
       <c r="G32" t="n">
-        <v>944.9067729040999</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1597,22 +1499,19 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>945.9067729040999</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1634,22 +1533,19 @@
         <v>613.9999</v>
       </c>
       <c r="G34" t="n">
-        <v>331.9068729040998</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1671,22 +1567,19 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>332.9068729040998</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1708,22 +1601,19 @@
         <v>266.3241</v>
       </c>
       <c r="G36" t="n">
-        <v>66.58277290409984</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1745,22 +1635,19 @@
         <v>5448.6601</v>
       </c>
       <c r="G37" t="n">
-        <v>5515.2428729041</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1782,22 +1669,19 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>5516.2428729041</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1819,22 +1703,19 @@
         <v>1991.7375</v>
       </c>
       <c r="G39" t="n">
-        <v>3524.5053729041</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1856,22 +1737,19 @@
         <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>3525.5053729041</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1893,22 +1771,19 @@
         <v>343.458</v>
       </c>
       <c r="G41" t="n">
-        <v>3182.0473729041</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1930,22 +1805,19 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>3183.0473729041</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1967,22 +1839,19 @@
         <v>97.7152</v>
       </c>
       <c r="G43" t="n">
-        <v>3085.3321729041</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2004,22 +1873,19 @@
         <v>5896.2741</v>
       </c>
       <c r="G44" t="n">
-        <v>3085.3321729041</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2041,22 +1907,19 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>3086.3321729041</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2078,22 +1941,19 @@
         <v>854.9999</v>
       </c>
       <c r="G46" t="n">
-        <v>3086.3321729041</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2115,22 +1975,19 @@
         <v>1702</v>
       </c>
       <c r="G47" t="n">
-        <v>3086.3321729041</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2152,22 +2009,19 @@
         <v>374.2359</v>
       </c>
       <c r="G48" t="n">
-        <v>2712.0962729041</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2189,22 +2043,19 @@
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>2713.0962729041</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2226,22 +2077,19 @@
         <v>1335</v>
       </c>
       <c r="G50" t="n">
-        <v>4048.0962729041</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2263,22 +2111,19 @@
         <v>2910.0515</v>
       </c>
       <c r="G51" t="n">
-        <v>4048.0962729041</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2300,22 +2145,19 @@
         <v>169.8305</v>
       </c>
       <c r="G52" t="n">
-        <v>4048.0962729041</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2337,22 +2179,19 @@
         <v>3141</v>
       </c>
       <c r="G53" t="n">
-        <v>907.0962729040998</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2374,22 +2213,19 @@
         <v>2164</v>
       </c>
       <c r="G54" t="n">
-        <v>907.0962729040998</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2411,22 +2247,19 @@
         <v>921</v>
       </c>
       <c r="G55" t="n">
-        <v>-13.90372709590019</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2448,22 +2281,19 @@
         <v>3713</v>
       </c>
       <c r="G56" t="n">
-        <v>-13.90372709590019</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2485,22 +2315,19 @@
         <v>938.3859</v>
       </c>
       <c r="G57" t="n">
-        <v>924.4821729040998</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2522,22 +2349,19 @@
         <v>12.9197</v>
       </c>
       <c r="G58" t="n">
-        <v>911.5624729040998</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2559,22 +2383,19 @@
         <v>1338.0432</v>
       </c>
       <c r="G59" t="n">
-        <v>2249.6056729041</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2596,22 +2417,19 @@
         <v>1958.5329</v>
       </c>
       <c r="G60" t="n">
-        <v>4208.138572904099</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2633,22 +2451,19 @@
         <v>2775.1499</v>
       </c>
       <c r="G61" t="n">
-        <v>6983.2884729041</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2670,22 +2485,19 @@
         <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>7083.2884729041</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2707,22 +2519,19 @@
         <v>8130.7432</v>
       </c>
       <c r="G63" t="n">
-        <v>-1047.4547270959</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2744,22 +2553,19 @@
         <v>345.7541</v>
       </c>
       <c r="G64" t="n">
-        <v>-701.7006270959001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2781,22 +2587,19 @@
         <v>5006</v>
       </c>
       <c r="G65" t="n">
-        <v>-701.7006270959001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2818,22 +2621,19 @@
         <v>1669</v>
       </c>
       <c r="G66" t="n">
-        <v>-701.7006270959001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2855,22 +2655,19 @@
         <v>15945.3325</v>
       </c>
       <c r="G67" t="n">
-        <v>15243.6318729041</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2892,22 +2689,19 @@
         <v>6</v>
       </c>
       <c r="G68" t="n">
-        <v>15243.6318729041</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2929,22 +2723,19 @@
         <v>5700</v>
       </c>
       <c r="G69" t="n">
-        <v>20943.6318729041</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2966,22 +2757,19 @@
         <v>450</v>
       </c>
       <c r="G70" t="n">
-        <v>21393.6318729041</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3003,22 +2791,19 @@
         <v>504.4375</v>
       </c>
       <c r="G71" t="n">
-        <v>21393.6318729041</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3040,22 +2825,19 @@
         <v>1891.6437</v>
       </c>
       <c r="G72" t="n">
-        <v>21393.6318729041</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3077,22 +2859,19 @@
         <v>1229.5687</v>
       </c>
       <c r="G73" t="n">
-        <v>21393.6318729041</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3114,22 +2893,19 @@
         <v>358.6248</v>
       </c>
       <c r="G74" t="n">
-        <v>21393.6318729041</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3151,22 +2927,19 @@
         <v>100</v>
       </c>
       <c r="G75" t="n">
-        <v>21393.6318729041</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3188,22 +2961,19 @@
         <v>20489.2374</v>
       </c>
       <c r="G76" t="n">
-        <v>904.3944729040995</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3225,22 +2995,19 @@
         <v>193.9922</v>
       </c>
       <c r="G77" t="n">
-        <v>1098.386672904099</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3262,22 +3029,19 @@
         <v>550.6722</v>
       </c>
       <c r="G78" t="n">
-        <v>1649.058872904099</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3299,22 +3063,19 @@
         <v>1665</v>
       </c>
       <c r="G79" t="n">
-        <v>1649.058872904099</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,22 +3097,19 @@
         <v>278</v>
       </c>
       <c r="G80" t="n">
-        <v>1649.058872904099</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3373,22 +3131,19 @@
         <v>139</v>
       </c>
       <c r="G81" t="n">
-        <v>1649.058872904099</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3410,22 +3165,19 @@
         <v>1250</v>
       </c>
       <c r="G82" t="n">
-        <v>2899.058872904099</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3447,22 +3199,19 @@
         <v>1000</v>
       </c>
       <c r="G83" t="n">
-        <v>1899.058872904099</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3484,22 +3233,19 @@
         <v>11036.8598</v>
       </c>
       <c r="G84" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3521,22 +3267,19 @@
         <v>250</v>
       </c>
       <c r="G85" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3558,22 +3301,19 @@
         <v>500</v>
       </c>
       <c r="G86" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3595,22 +3335,19 @@
         <v>6.2058</v>
       </c>
       <c r="G87" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3632,22 +3369,19 @@
         <v>250</v>
       </c>
       <c r="G88" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3669,22 +3403,19 @@
         <v>2195.8949</v>
       </c>
       <c r="G89" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3706,22 +3437,19 @@
         <v>3000</v>
       </c>
       <c r="G90" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3743,22 +3471,19 @@
         <v>5750</v>
       </c>
       <c r="G91" t="n">
-        <v>12935.9186729041</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3780,22 +3505,19 @@
         <v>1600.4302</v>
       </c>
       <c r="G92" t="n">
-        <v>11335.4884729041</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3817,22 +3539,19 @@
         <v>2</v>
       </c>
       <c r="G93" t="n">
-        <v>11337.4884729041</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3854,22 +3573,19 @@
         <v>132</v>
       </c>
       <c r="G94" t="n">
-        <v>11205.4884729041</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3891,22 +3607,19 @@
         <v>1360</v>
       </c>
       <c r="G95" t="n">
-        <v>12565.4884729041</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3928,22 +3641,19 @@
         <v>19044.7129</v>
       </c>
       <c r="G96" t="n">
-        <v>12565.4884729041</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3965,22 +3675,19 @@
         <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>12566.4884729041</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4002,22 +3709,19 @@
         <v>120.0596</v>
       </c>
       <c r="G98" t="n">
-        <v>12566.4884729041</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4039,22 +3743,19 @@
         <v>2001</v>
       </c>
       <c r="G99" t="n">
-        <v>14567.4884729041</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4076,22 +3777,17 @@
         <v>5829.8678</v>
       </c>
       <c r="G100" t="n">
-        <v>8737.620672904099</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4113,22 +3809,15 @@
         <v>5029</v>
       </c>
       <c r="G101" t="n">
-        <v>13766.6206729041</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4150,22 +3839,15 @@
         <v>227</v>
       </c>
       <c r="G102" t="n">
-        <v>13539.6206729041</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4187,22 +3869,15 @@
         <v>294.0433</v>
       </c>
       <c r="G103" t="n">
-        <v>13539.6206729041</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4224,22 +3899,15 @@
         <v>2224.9999</v>
       </c>
       <c r="G104" t="n">
-        <v>11314.6207729041</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4261,22 +3929,15 @@
         <v>1</v>
       </c>
       <c r="G105" t="n">
-        <v>11315.6207729041</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4298,22 +3959,15 @@
         <v>229.28</v>
       </c>
       <c r="G106" t="n">
-        <v>11086.3407729041</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4335,22 +3989,15 @@
         <v>2</v>
       </c>
       <c r="G107" t="n">
-        <v>11088.3407729041</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4372,22 +4019,15 @@
         <v>29.2259</v>
       </c>
       <c r="G108" t="n">
-        <v>11088.3407729041</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4409,22 +4049,15 @@
         <v>30.1529</v>
       </c>
       <c r="G109" t="n">
-        <v>11088.3407729041</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4446,22 +4079,15 @@
         <v>3036.1757</v>
       </c>
       <c r="G110" t="n">
-        <v>11088.3407729041</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4483,22 +4109,15 @@
         <v>1</v>
       </c>
       <c r="G111" t="n">
-        <v>11089.3407729041</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4520,22 +4139,15 @@
         <v>1557.5815</v>
       </c>
       <c r="G112" t="n">
-        <v>9531.759272904097</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4557,22 +4169,15 @@
         <v>618.7655999999999</v>
       </c>
       <c r="G113" t="n">
-        <v>9531.759272904097</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4594,22 +4199,15 @@
         <v>1018</v>
       </c>
       <c r="G114" t="n">
-        <v>9531.759272904097</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4631,22 +4229,15 @@
         <v>62.5875</v>
       </c>
       <c r="G115" t="n">
-        <v>9594.346772904097</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4668,22 +4259,15 @@
         <v>507.7699</v>
       </c>
       <c r="G116" t="n">
-        <v>9086.576872904097</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4705,22 +4289,15 @@
         <v>5541.7687</v>
       </c>
       <c r="G117" t="n">
-        <v>14628.3455729041</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4742,22 +4319,15 @@
         <v>866.9109</v>
       </c>
       <c r="G118" t="n">
-        <v>15495.2564729041</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4779,22 +4349,15 @@
         <v>500</v>
       </c>
       <c r="G119" t="n">
-        <v>14995.2564729041</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4816,22 +4379,15 @@
         <v>2</v>
       </c>
       <c r="G120" t="n">
-        <v>14997.2564729041</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4853,22 +4409,15 @@
         <v>199.8397</v>
       </c>
       <c r="G121" t="n">
-        <v>14797.4167729041</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4890,20 +4439,15 @@
         <v>1802</v>
       </c>
       <c r="G122" t="n">
-        <v>14797.4167729041</v>
-      </c>
-      <c r="H122" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K122" t="n">
+        <v>1</v>
       </c>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4925,18 +4469,15 @@
         <v>250</v>
       </c>
       <c r="G123" t="n">
-        <v>14797.4167729041</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4958,18 +4499,15 @@
         <v>138</v>
       </c>
       <c r="G124" t="n">
-        <v>14797.4167729041</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4991,18 +4529,15 @@
         <v>2920.2833</v>
       </c>
       <c r="G125" t="n">
-        <v>14797.4167729041</v>
-      </c>
-      <c r="H125" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5024,18 +4559,15 @@
         <v>149.2555647302</v>
       </c>
       <c r="G126" t="n">
-        <v>14946.6723376343</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5057,18 +4589,15 @@
         <v>8378.957399999999</v>
       </c>
       <c r="G127" t="n">
-        <v>14946.6723376343</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5090,18 +4619,15 @@
         <v>10157</v>
       </c>
       <c r="G128" t="n">
-        <v>14946.6723376343</v>
-      </c>
-      <c r="H128" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5123,18 +4649,15 @@
         <v>5000</v>
       </c>
       <c r="G129" t="n">
-        <v>9946.672337634298</v>
-      </c>
-      <c r="H129" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5156,18 +4679,15 @@
         <v>1</v>
       </c>
       <c r="G130" t="n">
-        <v>9947.672337634298</v>
-      </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5189,18 +4709,15 @@
         <v>919.0574</v>
       </c>
       <c r="G131" t="n">
-        <v>10866.7297376343</v>
-      </c>
-      <c r="H131" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5222,18 +4739,15 @@
         <v>515</v>
       </c>
       <c r="G132" t="n">
-        <v>10866.7297376343</v>
-      </c>
-      <c r="H132" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5255,18 +4769,15 @@
         <v>448</v>
       </c>
       <c r="G133" t="n">
-        <v>10866.7297376343</v>
-      </c>
-      <c r="H133" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5288,18 +4799,15 @@
         <v>2053.6876</v>
       </c>
       <c r="G134" t="n">
-        <v>10866.7297376343</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5321,18 +4829,15 @@
         <v>148.8824</v>
       </c>
       <c r="G135" t="n">
-        <v>10717.8473376343</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5354,18 +4859,15 @@
         <v>10112.929</v>
       </c>
       <c r="G136" t="n">
-        <v>604.9183376342971</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5387,18 +4889,15 @@
         <v>3649</v>
       </c>
       <c r="G137" t="n">
-        <v>4253.918337634297</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5420,18 +4919,15 @@
         <v>5306.6048</v>
       </c>
       <c r="G138" t="n">
-        <v>9560.523137634296</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5453,18 +4949,15 @@
         <v>4779.9998</v>
       </c>
       <c r="G139" t="n">
-        <v>14340.5229376343</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5486,18 +4979,15 @@
         <v>7237.7992</v>
       </c>
       <c r="G140" t="n">
-        <v>21578.3221376343</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5519,18 +5009,15 @@
         <v>219</v>
       </c>
       <c r="G141" t="n">
-        <v>21578.3221376343</v>
-      </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5552,18 +5039,15 @@
         <v>13.0434</v>
       </c>
       <c r="G142" t="n">
-        <v>21565.2787376343</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5585,18 +5069,15 @@
         <v>157</v>
       </c>
       <c r="G143" t="n">
-        <v>21722.2787376343</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5618,18 +5099,15 @@
         <v>442</v>
       </c>
       <c r="G144" t="n">
-        <v>21722.2787376343</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5651,18 +5129,15 @@
         <v>1000</v>
       </c>
       <c r="G145" t="n">
-        <v>20722.2787376343</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5684,18 +5159,15 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>20723.2787376343</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5717,18 +5189,15 @@
         <v>1430.9999</v>
       </c>
       <c r="G147" t="n">
-        <v>20723.2787376343</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5750,18 +5219,15 @@
         <v>62.431</v>
       </c>
       <c r="G148" t="n">
-        <v>20660.8477376343</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5783,18 +5249,15 @@
         <v>2497</v>
       </c>
       <c r="G149" t="n">
-        <v>23157.8477376343</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5816,18 +5279,15 @@
         <v>13.0434</v>
       </c>
       <c r="G150" t="n">
-        <v>23144.8043376343</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5849,18 +5309,15 @@
         <v>6.2204</v>
       </c>
       <c r="G151" t="n">
-        <v>23138.5839376343</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5882,18 +5339,15 @@
         <v>18918.8468</v>
       </c>
       <c r="G152" t="n">
-        <v>42057.4307376343</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5915,18 +5369,15 @@
         <v>3020.5535</v>
       </c>
       <c r="G153" t="n">
-        <v>39036.8772376343</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5948,18 +5399,15 @@
         <v>601.7451</v>
       </c>
       <c r="G154" t="n">
-        <v>39036.8772376343</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5981,18 +5429,15 @@
         <v>188</v>
       </c>
       <c r="G155" t="n">
-        <v>39036.8772376343</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6014,18 +5459,15 @@
         <v>3186.0654</v>
       </c>
       <c r="G156" t="n">
-        <v>42222.9426376343</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6047,18 +5489,15 @@
         <v>324.2161</v>
       </c>
       <c r="G157" t="n">
-        <v>42222.9426376343</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6080,18 +5519,15 @@
         <v>146.6992</v>
       </c>
       <c r="G158" t="n">
-        <v>42222.9426376343</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6113,18 +5549,15 @@
         <v>299.0937</v>
       </c>
       <c r="G159" t="n">
-        <v>42222.9426376343</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,18 +5579,15 @@
         <v>45.3301</v>
       </c>
       <c r="G160" t="n">
-        <v>42268.2727376343</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6179,18 +5609,15 @@
         <v>187.9999</v>
       </c>
       <c r="G161" t="n">
-        <v>42080.27283763429</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6212,18 +5639,15 @@
         <v>1566.3383</v>
       </c>
       <c r="G162" t="n">
-        <v>40513.93453763429</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6245,18 +5669,15 @@
         <v>8853.363799999999</v>
       </c>
       <c r="G163" t="n">
-        <v>31660.57073763429</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6278,18 +5699,15 @@
         <v>2247.8468</v>
       </c>
       <c r="G164" t="n">
-        <v>31660.57073763429</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6311,18 +5729,15 @@
         <v>6754</v>
       </c>
       <c r="G165" t="n">
-        <v>24906.57073763429</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
